--- a/Stock_data/Apple.xlsx
+++ b/Stock_data/Apple.xlsx
@@ -525,7 +525,7 @@
         <v>43832</v>
       </c>
       <c r="B4" t="n">
-        <v>72.7960205078125</v>
+        <v>72.79601287841797</v>
       </c>
       <c r="C4" t="n">
         <v>75.08750152587891</v>
@@ -548,7 +548,7 @@
         <v>43833</v>
       </c>
       <c r="B5" t="n">
-        <v>72.08831024169922</v>
+        <v>72.08829498291016</v>
       </c>
       <c r="C5" t="n">
         <v>74.35749816894531</v>
@@ -571,7 +571,7 @@
         <v>43836</v>
       </c>
       <c r="B6" t="n">
-        <v>72.6627197265625</v>
+        <v>72.66273498535156</v>
       </c>
       <c r="C6" t="n">
         <v>74.94999694824219</v>
@@ -594,7 +594,7 @@
         <v>43837</v>
       </c>
       <c r="B7" t="n">
-        <v>72.32098388671875</v>
+        <v>72.32096862792969</v>
       </c>
       <c r="C7" t="n">
         <v>74.59750366210938</v>
@@ -617,7 +617,7 @@
         <v>43838</v>
       </c>
       <c r="B8" t="n">
-        <v>73.48436737060547</v>
+        <v>73.48433685302734</v>
       </c>
       <c r="C8" t="n">
         <v>75.79750061035156</v>
@@ -663,7 +663,7 @@
         <v>43840</v>
       </c>
       <c r="B10" t="n">
-        <v>75.21489715576172</v>
+        <v>75.21487426757812</v>
       </c>
       <c r="C10" t="n">
         <v>77.58249664306641</v>
@@ -709,7 +709,7 @@
         <v>43844</v>
       </c>
       <c r="B12" t="n">
-        <v>75.78444671630859</v>
+        <v>75.78443908691406</v>
       </c>
       <c r="C12" t="n">
         <v>78.16999816894531</v>
@@ -755,7 +755,7 @@
         <v>43846</v>
       </c>
       <c r="B14" t="n">
-        <v>76.40491485595703</v>
+        <v>76.40492248535156</v>
       </c>
       <c r="C14" t="n">
         <v>78.80999755859375</v>
@@ -778,7 +778,7 @@
         <v>43847</v>
       </c>
       <c r="B15" t="n">
-        <v>77.25080108642578</v>
+        <v>77.25078582763672</v>
       </c>
       <c r="C15" t="n">
         <v>79.68250274658203</v>
@@ -824,7 +824,7 @@
         <v>43852</v>
       </c>
       <c r="B17" t="n">
-        <v>77.00115966796875</v>
+        <v>77.00114440917969</v>
       </c>
       <c r="C17" t="n">
         <v>79.42500305175781</v>
@@ -916,7 +916,7 @@
         <v>43858</v>
       </c>
       <c r="B21" t="n">
-        <v>76.99873352050781</v>
+        <v>76.99871826171875</v>
       </c>
       <c r="C21" t="n">
         <v>79.42250061035156</v>
@@ -962,7 +962,7 @@
         <v>43860</v>
       </c>
       <c r="B23" t="n">
-        <v>78.49657440185547</v>
+        <v>78.49658203125</v>
       </c>
       <c r="C23" t="n">
         <v>80.96749877929688</v>
@@ -985,7 +985,7 @@
         <v>43861</v>
       </c>
       <c r="B24" t="n">
-        <v>75.01614379882812</v>
+        <v>75.01613616943359</v>
       </c>
       <c r="C24" t="n">
         <v>77.37750244140625</v>
@@ -1008,7 +1008,7 @@
         <v>43864</v>
       </c>
       <c r="B25" t="n">
-        <v>74.81014251708984</v>
+        <v>74.81010437011719</v>
       </c>
       <c r="C25" t="n">
         <v>77.16500091552734</v>
@@ -1031,7 +1031,7 @@
         <v>43865</v>
       </c>
       <c r="B26" t="n">
-        <v>77.27986145019531</v>
+        <v>77.27987670898438</v>
       </c>
       <c r="C26" t="n">
         <v>79.71250152587891</v>
@@ -1077,7 +1077,7 @@
         <v>43867</v>
       </c>
       <c r="B28" t="n">
-        <v>78.82135009765625</v>
+        <v>78.82136535644531</v>
       </c>
       <c r="C28" t="n">
         <v>81.30249786376953</v>
@@ -1123,7 +1123,7 @@
         <v>43871</v>
       </c>
       <c r="B30" t="n">
-        <v>78.11924743652344</v>
+        <v>78.11923217773438</v>
       </c>
       <c r="C30" t="n">
         <v>80.38749694824219</v>
@@ -1169,7 +1169,7 @@
         <v>43873</v>
       </c>
       <c r="B32" t="n">
-        <v>79.49188995361328</v>
+        <v>79.49188232421875</v>
       </c>
       <c r="C32" t="n">
         <v>81.80000305175781</v>
@@ -1192,7 +1192,7 @@
         <v>43874</v>
       </c>
       <c r="B33" t="n">
-        <v>78.92580413818359</v>
+        <v>78.92581939697266</v>
       </c>
       <c r="C33" t="n">
         <v>81.21749877929688</v>
@@ -1215,7 +1215,7 @@
         <v>43875</v>
       </c>
       <c r="B34" t="n">
-        <v>78.94524383544922</v>
+        <v>78.94525146484375</v>
       </c>
       <c r="C34" t="n">
         <v>81.23750305175781</v>
@@ -1261,7 +1261,7 @@
         <v>43880</v>
       </c>
       <c r="B36" t="n">
-        <v>78.62213897705078</v>
+        <v>78.62213134765625</v>
       </c>
       <c r="C36" t="n">
         <v>80.90499877929688</v>
@@ -1284,7 +1284,7 @@
         <v>43881</v>
       </c>
       <c r="B37" t="n">
-        <v>77.81555938720703</v>
+        <v>77.8155517578125</v>
       </c>
       <c r="C37" t="n">
         <v>80.07499694824219</v>
@@ -1307,7 +1307,7 @@
         <v>43882</v>
       </c>
       <c r="B38" t="n">
-        <v>76.05419921875</v>
+        <v>76.05420684814453</v>
       </c>
       <c r="C38" t="n">
         <v>78.26249694824219</v>
@@ -1330,7 +1330,7 @@
         <v>43885</v>
       </c>
       <c r="B39" t="n">
-        <v>72.44158935546875</v>
+        <v>72.44159698486328</v>
       </c>
       <c r="C39" t="n">
         <v>74.54499816894531</v>
@@ -1353,7 +1353,7 @@
         <v>43886</v>
       </c>
       <c r="B40" t="n">
-        <v>69.98783874511719</v>
+        <v>69.98782348632812</v>
       </c>
       <c r="C40" t="n">
         <v>72.01999664306641</v>
@@ -1376,7 +1376,7 @@
         <v>43887</v>
       </c>
       <c r="B41" t="n">
-        <v>71.09811401367188</v>
+        <v>71.09809875488281</v>
       </c>
       <c r="C41" t="n">
         <v>73.16249847412109</v>
@@ -1422,7 +1422,7 @@
         <v>43889</v>
       </c>
       <c r="B43" t="n">
-        <v>66.41168212890625</v>
+        <v>66.41167449951172</v>
       </c>
       <c r="C43" t="n">
         <v>68.33999633789062</v>
@@ -1468,7 +1468,7 @@
         <v>43893</v>
       </c>
       <c r="B45" t="n">
-        <v>70.28907775878906</v>
+        <v>70.28908538818359</v>
       </c>
       <c r="C45" t="n">
         <v>72.33000183105469</v>
@@ -1491,7 +1491,7 @@
         <v>43894</v>
       </c>
       <c r="B46" t="n">
-        <v>73.54941558837891</v>
+        <v>73.54942321777344</v>
       </c>
       <c r="C46" t="n">
         <v>75.68499755859375</v>
@@ -1514,7 +1514,7 @@
         <v>43895</v>
       </c>
       <c r="B47" t="n">
-        <v>71.16368103027344</v>
+        <v>71.1636962890625</v>
       </c>
       <c r="C47" t="n">
         <v>73.23000335693359</v>
@@ -1537,7 +1537,7 @@
         <v>43896</v>
       </c>
       <c r="B48" t="n">
-        <v>70.21865081787109</v>
+        <v>70.2186279296875</v>
       </c>
       <c r="C48" t="n">
         <v>72.25749969482422</v>
@@ -1583,7 +1583,7 @@
         <v>43900</v>
       </c>
       <c r="B50" t="n">
-        <v>69.32215881347656</v>
+        <v>69.32216644287109</v>
       </c>
       <c r="C50" t="n">
         <v>71.33499908447266</v>
@@ -1606,7 +1606,7 @@
         <v>43901</v>
       </c>
       <c r="B51" t="n">
-        <v>66.91457366943359</v>
+        <v>66.91455841064453</v>
       </c>
       <c r="C51" t="n">
         <v>68.85749816894531</v>
@@ -1629,7 +1629,7 @@
         <v>43902</v>
       </c>
       <c r="B52" t="n">
-        <v>60.30644607543945</v>
+        <v>60.30643844604492</v>
       </c>
       <c r="C52" t="n">
         <v>62.05749893188477</v>
@@ -1652,7 +1652,7 @@
         <v>43903</v>
       </c>
       <c r="B53" t="n">
-        <v>67.53166198730469</v>
+        <v>67.53165435791016</v>
       </c>
       <c r="C53" t="n">
         <v>69.49250030517578</v>
@@ -1698,7 +1698,7 @@
         <v>43907</v>
       </c>
       <c r="B55" t="n">
-        <v>61.43128967285156</v>
+        <v>61.4312858581543</v>
       </c>
       <c r="C55" t="n">
         <v>63.21500015258789</v>
@@ -1721,7 +1721,7 @@
         <v>43908</v>
       </c>
       <c r="B56" t="n">
-        <v>59.92744445800781</v>
+        <v>59.92744827270508</v>
       </c>
       <c r="C56" t="n">
         <v>61.66749954223633</v>
@@ -1744,7 +1744,7 @@
         <v>43909</v>
       </c>
       <c r="B57" t="n">
-        <v>59.46828842163086</v>
+        <v>59.46827697753906</v>
       </c>
       <c r="C57" t="n">
         <v>61.19499969482422</v>
@@ -1767,7 +1767,7 @@
         <v>43910</v>
       </c>
       <c r="B58" t="n">
-        <v>55.69290924072266</v>
+        <v>55.69290542602539</v>
       </c>
       <c r="C58" t="n">
         <v>57.31000137329102</v>
@@ -1790,7 +1790,7 @@
         <v>43913</v>
       </c>
       <c r="B59" t="n">
-        <v>54.50975799560547</v>
+        <v>54.5097541809082</v>
       </c>
       <c r="C59" t="n">
         <v>56.09249877929688</v>
@@ -1813,7 +1813,7 @@
         <v>43914</v>
       </c>
       <c r="B60" t="n">
-        <v>59.97846603393555</v>
+        <v>59.97846984863281</v>
       </c>
       <c r="C60" t="n">
         <v>61.72000122070312</v>
@@ -1836,7 +1836,7 @@
         <v>43915</v>
       </c>
       <c r="B61" t="n">
-        <v>59.64806365966797</v>
+        <v>59.64807510375977</v>
       </c>
       <c r="C61" t="n">
         <v>61.38000106811523</v>
@@ -1859,7 +1859,7 @@
         <v>43916</v>
       </c>
       <c r="B62" t="n">
-        <v>62.78693771362305</v>
+        <v>62.78692626953125</v>
       </c>
       <c r="C62" t="n">
         <v>64.61000061035156</v>
@@ -1882,7 +1882,7 @@
         <v>43917</v>
       </c>
       <c r="B63" t="n">
-        <v>60.18740844726562</v>
+        <v>60.18741226196289</v>
       </c>
       <c r="C63" t="n">
         <v>61.93500137329102</v>
@@ -1905,7 +1905,7 @@
         <v>43920</v>
       </c>
       <c r="B64" t="n">
-        <v>61.90502166748047</v>
+        <v>61.905029296875</v>
       </c>
       <c r="C64" t="n">
         <v>63.70249938964844</v>
@@ -1928,7 +1928,7 @@
         <v>43921</v>
       </c>
       <c r="B65" t="n">
-        <v>61.77869033813477</v>
+        <v>61.77870178222656</v>
       </c>
       <c r="C65" t="n">
         <v>63.5724983215332</v>
@@ -1974,7 +1974,7 @@
         <v>43923</v>
       </c>
       <c r="B67" t="n">
-        <v>59.50471496582031</v>
+        <v>59.50472640991211</v>
       </c>
       <c r="C67" t="n">
         <v>61.23249816894531</v>
@@ -1997,7 +1997,7 @@
         <v>43924</v>
       </c>
       <c r="B68" t="n">
-        <v>58.64955520629883</v>
+        <v>58.64955902099609</v>
       </c>
       <c r="C68" t="n">
         <v>60.35250091552734</v>
@@ -2043,7 +2043,7 @@
         <v>43928</v>
       </c>
       <c r="B70" t="n">
-        <v>63.02743911743164</v>
+        <v>63.02743148803711</v>
       </c>
       <c r="C70" t="n">
         <v>64.85749816894531</v>
@@ -2089,7 +2089,7 @@
         <v>43930</v>
       </c>
       <c r="B72" t="n">
-        <v>65.10704803466797</v>
+        <v>65.10704040527344</v>
       </c>
       <c r="C72" t="n">
         <v>66.99749755859375</v>
@@ -2112,7 +2112,7 @@
         <v>43934</v>
       </c>
       <c r="B73" t="n">
-        <v>66.38495635986328</v>
+        <v>66.38494873046875</v>
       </c>
       <c r="C73" t="n">
         <v>68.3125</v>
@@ -2158,7 +2158,7 @@
         <v>43936</v>
       </c>
       <c r="B75" t="n">
-        <v>69.10108947753906</v>
+        <v>69.10108184814453</v>
       </c>
       <c r="C75" t="n">
         <v>71.10749816894531</v>
@@ -2181,7 +2181,7 @@
         <v>43937</v>
       </c>
       <c r="B76" t="n">
-        <v>69.65013122558594</v>
+        <v>69.650146484375</v>
       </c>
       <c r="C76" t="n">
         <v>71.67250061035156</v>
@@ -2204,7 +2204,7 @@
         <v>43938</v>
       </c>
       <c r="B77" t="n">
-        <v>68.70508575439453</v>
+        <v>68.70507049560547</v>
       </c>
       <c r="C77" t="n">
         <v>70.69999694824219</v>
@@ -2319,7 +2319,7 @@
         <v>43945</v>
       </c>
       <c r="B82" t="n">
-        <v>68.74639129638672</v>
+        <v>68.74637603759766</v>
       </c>
       <c r="C82" t="n">
         <v>70.74250030517578</v>
@@ -2365,7 +2365,7 @@
         <v>43949</v>
       </c>
       <c r="B84" t="n">
-        <v>67.67984008789062</v>
+        <v>67.67984771728516</v>
       </c>
       <c r="C84" t="n">
         <v>69.64499664306641</v>
@@ -2388,7 +2388,7 @@
         <v>43950</v>
       </c>
       <c r="B85" t="n">
-        <v>69.90280914306641</v>
+        <v>69.90282440185547</v>
       </c>
       <c r="C85" t="n">
         <v>71.93250274658203</v>
@@ -2411,7 +2411,7 @@
         <v>43951</v>
       </c>
       <c r="B86" t="n">
-        <v>71.37747192382812</v>
+        <v>71.37747955322266</v>
       </c>
       <c r="C86" t="n">
         <v>73.44999694824219</v>
@@ -2434,7 +2434,7 @@
         <v>43952</v>
       </c>
       <c r="B87" t="n">
-        <v>70.22835540771484</v>
+        <v>70.22837066650391</v>
       </c>
       <c r="C87" t="n">
         <v>72.26750183105469</v>
@@ -2457,7 +2457,7 @@
         <v>43955</v>
       </c>
       <c r="B88" t="n">
-        <v>71.22201538085938</v>
+        <v>71.22200012207031</v>
       </c>
       <c r="C88" t="n">
         <v>73.29000091552734</v>
@@ -2480,7 +2480,7 @@
         <v>43956</v>
       </c>
       <c r="B89" t="n">
-        <v>72.29098510742188</v>
+        <v>72.29095458984375</v>
       </c>
       <c r="C89" t="n">
         <v>74.38999938964844</v>
@@ -2526,7 +2526,7 @@
         <v>43958</v>
       </c>
       <c r="B91" t="n">
-        <v>73.79236602783203</v>
+        <v>73.79237365722656</v>
       </c>
       <c r="C91" t="n">
         <v>75.93499755859375</v>
@@ -2549,7 +2549,7 @@
         <v>43959</v>
       </c>
       <c r="B92" t="n">
-        <v>75.54877471923828</v>
+        <v>75.54875183105469</v>
       </c>
       <c r="C92" t="n">
         <v>77.53250122070312</v>
@@ -2572,7 +2572,7 @@
         <v>43962</v>
       </c>
       <c r="B93" t="n">
-        <v>76.73754119873047</v>
+        <v>76.737548828125</v>
       </c>
       <c r="C93" t="n">
         <v>78.75250244140625</v>
@@ -2595,7 +2595,7 @@
         <v>43963</v>
       </c>
       <c r="B94" t="n">
-        <v>75.86054992675781</v>
+        <v>75.86057281494141</v>
       </c>
       <c r="C94" t="n">
         <v>77.85250091552734</v>
@@ -2618,7 +2618,7 @@
         <v>43964</v>
       </c>
       <c r="B95" t="n">
-        <v>74.94461059570312</v>
+        <v>74.94460296630859</v>
       </c>
       <c r="C95" t="n">
         <v>76.91249847412109</v>
@@ -2664,7 +2664,7 @@
         <v>43966</v>
       </c>
       <c r="B97" t="n">
-        <v>74.959228515625</v>
+        <v>74.95923614501953</v>
       </c>
       <c r="C97" t="n">
         <v>76.92749786376953</v>
@@ -2710,7 +2710,7 @@
         <v>43970</v>
       </c>
       <c r="B99" t="n">
-        <v>76.28199768066406</v>
+        <v>76.28202056884766</v>
       </c>
       <c r="C99" t="n">
         <v>78.28500366210938</v>
@@ -2756,7 +2756,7 @@
         <v>43972</v>
       </c>
       <c r="B101" t="n">
-        <v>77.18578338623047</v>
+        <v>77.18576812744141</v>
       </c>
       <c r="C101" t="n">
         <v>79.21250152587891</v>
@@ -2802,7 +2802,7 @@
         <v>43977</v>
       </c>
       <c r="B103" t="n">
-        <v>77.15653991699219</v>
+        <v>77.15653228759766</v>
       </c>
       <c r="C103" t="n">
         <v>79.18250274658203</v>
@@ -2825,7 +2825,7 @@
         <v>43978</v>
       </c>
       <c r="B104" t="n">
-        <v>77.49269866943359</v>
+        <v>77.49270629882812</v>
       </c>
       <c r="C104" t="n">
         <v>79.52749633789062</v>
@@ -2848,7 +2848,7 @@
         <v>43979</v>
       </c>
       <c r="B105" t="n">
-        <v>77.52683258056641</v>
+        <v>77.52682495117188</v>
       </c>
       <c r="C105" t="n">
         <v>79.5625</v>
@@ -2871,7 +2871,7 @@
         <v>43980</v>
       </c>
       <c r="B106" t="n">
-        <v>77.45128631591797</v>
+        <v>77.45130157470703</v>
       </c>
       <c r="C106" t="n">
         <v>79.48500061035156</v>
@@ -2894,7 +2894,7 @@
         <v>43983</v>
       </c>
       <c r="B107" t="n">
-        <v>78.40377807617188</v>
+        <v>78.40377044677734</v>
       </c>
       <c r="C107" t="n">
         <v>80.46250152587891</v>
@@ -2917,7 +2917,7 @@
         <v>43984</v>
       </c>
       <c r="B108" t="n">
-        <v>78.76676177978516</v>
+        <v>78.76673889160156</v>
       </c>
       <c r="C108" t="n">
         <v>80.83499908447266</v>
@@ -2963,7 +2963,7 @@
         <v>43986</v>
       </c>
       <c r="B110" t="n">
-        <v>78.51828002929688</v>
+        <v>78.51827239990234</v>
       </c>
       <c r="C110" t="n">
         <v>80.58000183105469</v>
@@ -3009,7 +3009,7 @@
         <v>43990</v>
       </c>
       <c r="B112" t="n">
-        <v>81.23200988769531</v>
+        <v>81.23201751708984</v>
       </c>
       <c r="C112" t="n">
         <v>83.36499786376953</v>
@@ -3078,7 +3078,7 @@
         <v>43993</v>
       </c>
       <c r="B115" t="n">
-        <v>81.826416015625</v>
+        <v>81.82640838623047</v>
       </c>
       <c r="C115" t="n">
         <v>83.97499847412109</v>
@@ -3101,7 +3101,7 @@
         <v>43994</v>
       </c>
       <c r="B116" t="n">
-        <v>82.53285980224609</v>
+        <v>82.53284454345703</v>
       </c>
       <c r="C116" t="n">
         <v>84.69999694824219</v>
@@ -3147,7 +3147,7 @@
         <v>43998</v>
       </c>
       <c r="B118" t="n">
-        <v>85.76790618896484</v>
+        <v>85.76792144775391</v>
       </c>
       <c r="C118" t="n">
         <v>88.01999664306641</v>
@@ -3239,7 +3239,7 @@
         <v>44004</v>
       </c>
       <c r="B122" t="n">
-        <v>87.42198944091797</v>
+        <v>87.4219970703125</v>
       </c>
       <c r="C122" t="n">
         <v>89.71749877929688</v>
@@ -3262,7 +3262,7 @@
         <v>44005</v>
       </c>
       <c r="B123" t="n">
-        <v>89.28798675537109</v>
+        <v>89.28799438476562</v>
       </c>
       <c r="C123" t="n">
         <v>91.63249969482422</v>
@@ -3285,7 +3285,7 @@
         <v>44006</v>
       </c>
       <c r="B124" t="n">
-        <v>87.71188354492188</v>
+        <v>87.71187591552734</v>
       </c>
       <c r="C124" t="n">
         <v>90.01499938964844</v>
@@ -3308,7 +3308,7 @@
         <v>44007</v>
       </c>
       <c r="B125" t="n">
-        <v>88.87630462646484</v>
+        <v>88.87631225585938</v>
       </c>
       <c r="C125" t="n">
         <v>91.20999908447266</v>
@@ -3331,7 +3331,7 @@
         <v>44008</v>
       </c>
       <c r="B126" t="n">
-        <v>86.14551544189453</v>
+        <v>86.14550018310547</v>
       </c>
       <c r="C126" t="n">
         <v>88.40750122070312</v>
@@ -3354,7 +3354,7 @@
         <v>44011</v>
       </c>
       <c r="B127" t="n">
-        <v>88.13088226318359</v>
+        <v>88.130859375</v>
       </c>
       <c r="C127" t="n">
         <v>90.44499969482422</v>
@@ -3400,7 +3400,7 @@
         <v>44013</v>
       </c>
       <c r="B129" t="n">
-        <v>88.69846343994141</v>
+        <v>88.69844818115234</v>
       </c>
       <c r="C129" t="n">
         <v>91.02749633789062</v>
@@ -3423,7 +3423,7 @@
         <v>44014</v>
       </c>
       <c r="B130" t="n">
-        <v>88.69846343994141</v>
+        <v>88.69844818115234</v>
       </c>
       <c r="C130" t="n">
         <v>91.02749633789062</v>
@@ -3469,7 +3469,7 @@
         <v>44019</v>
       </c>
       <c r="B132" t="n">
-        <v>90.78857421875</v>
+        <v>90.78860473632812</v>
       </c>
       <c r="C132" t="n">
         <v>93.17250061035156</v>
@@ -3492,7 +3492,7 @@
         <v>44020</v>
       </c>
       <c r="B133" t="n">
-        <v>92.90306091308594</v>
+        <v>92.90305328369141</v>
       </c>
       <c r="C133" t="n">
         <v>95.34249877929688</v>
@@ -3515,7 +3515,7 @@
         <v>44021</v>
       </c>
       <c r="B134" t="n">
-        <v>93.30257415771484</v>
+        <v>93.30256652832031</v>
       </c>
       <c r="C134" t="n">
         <v>95.75250244140625</v>
@@ -3538,7 +3538,7 @@
         <v>44022</v>
       </c>
       <c r="B135" t="n">
-        <v>93.46578979492188</v>
+        <v>93.46578216552734</v>
       </c>
       <c r="C135" t="n">
         <v>95.91999816894531</v>
@@ -3561,7 +3561,7 @@
         <v>44025</v>
       </c>
       <c r="B136" t="n">
-        <v>93.03460693359375</v>
+        <v>93.03461456298828</v>
       </c>
       <c r="C136" t="n">
         <v>95.47750091552734</v>
@@ -3607,7 +3607,7 @@
         <v>44027</v>
       </c>
       <c r="B138" t="n">
-        <v>95.22459411621094</v>
+        <v>95.224609375</v>
       </c>
       <c r="C138" t="n">
         <v>97.72499847412109</v>
@@ -3630,7 +3630,7 @@
         <v>44028</v>
       </c>
       <c r="B139" t="n">
-        <v>94.05287170410156</v>
+        <v>94.05287933349609</v>
       </c>
       <c r="C139" t="n">
         <v>96.52249908447266</v>
@@ -3699,7 +3699,7 @@
         <v>44033</v>
       </c>
       <c r="B142" t="n">
-        <v>94.51816558837891</v>
+        <v>94.51815795898438</v>
       </c>
       <c r="C142" t="n">
         <v>97</v>
@@ -3722,7 +3722,7 @@
         <v>44034</v>
       </c>
       <c r="B143" t="n">
-        <v>94.78368377685547</v>
+        <v>94.78367614746094</v>
       </c>
       <c r="C143" t="n">
         <v>97.27249908447266</v>
@@ -3745,7 +3745,7 @@
         <v>44035</v>
       </c>
       <c r="B144" t="n">
-        <v>90.46945190429688</v>
+        <v>90.46945953369141</v>
       </c>
       <c r="C144" t="n">
         <v>92.84500122070312</v>
@@ -3768,7 +3768,7 @@
         <v>44036</v>
       </c>
       <c r="B145" t="n">
-        <v>90.24535369873047</v>
+        <v>90.245361328125</v>
       </c>
       <c r="C145" t="n">
         <v>92.61499786376953</v>
@@ -3791,7 +3791,7 @@
         <v>44039</v>
       </c>
       <c r="B146" t="n">
-        <v>92.38420104980469</v>
+        <v>92.38419342041016</v>
       </c>
       <c r="C146" t="n">
         <v>94.80999755859375</v>
@@ -3837,7 +3837,7 @@
         <v>44041</v>
       </c>
       <c r="B148" t="n">
-        <v>92.60829925537109</v>
+        <v>92.60831451416016</v>
       </c>
       <c r="C148" t="n">
         <v>95.04000091552734</v>
@@ -3860,7 +3860,7 @@
         <v>44042</v>
       </c>
       <c r="B149" t="n">
-        <v>93.7288818359375</v>
+        <v>93.72889709472656</v>
       </c>
       <c r="C149" t="n">
         <v>96.19000244140625</v>
@@ -3883,7 +3883,7 @@
         <v>44043</v>
       </c>
       <c r="B150" t="n">
-        <v>103.5412292480469</v>
+        <v>103.5412368774414</v>
       </c>
       <c r="C150" t="n">
         <v>106.2600021362305</v>
@@ -3906,7 +3906,7 @@
         <v>44046</v>
       </c>
       <c r="B151" t="n">
-        <v>106.1502075195312</v>
+        <v>106.1502380371094</v>
       </c>
       <c r="C151" t="n">
         <v>108.9375</v>
@@ -3952,7 +3952,7 @@
         <v>44048</v>
       </c>
       <c r="B153" t="n">
-        <v>107.2464294433594</v>
+        <v>107.2464370727539</v>
       </c>
       <c r="C153" t="n">
         <v>110.0625</v>
@@ -3975,7 +3975,7 @@
         <v>44049</v>
       </c>
       <c r="B154" t="n">
-        <v>110.9881744384766</v>
+        <v>110.9881896972656</v>
       </c>
       <c r="C154" t="n">
         <v>113.9024963378906</v>
@@ -3998,7 +3998,7 @@
         <v>44050</v>
       </c>
       <c r="B155" t="n">
-        <v>108.4647903442383</v>
+        <v>108.4647750854492</v>
       </c>
       <c r="C155" t="n">
         <v>111.1125030517578</v>
@@ -4021,7 +4021,7 @@
         <v>44053</v>
       </c>
       <c r="B156" t="n">
-        <v>110.0413055419922</v>
+        <v>110.0412826538086</v>
       </c>
       <c r="C156" t="n">
         <v>112.7275009155273</v>
@@ -4044,7 +4044,7 @@
         <v>44054</v>
       </c>
       <c r="B157" t="n">
-        <v>106.768684387207</v>
+        <v>106.7686920166016</v>
       </c>
       <c r="C157" t="n">
         <v>109.375</v>
@@ -4067,7 +4067,7 @@
         <v>44055</v>
       </c>
       <c r="B158" t="n">
-        <v>110.3170700073242</v>
+        <v>110.3170928955078</v>
       </c>
       <c r="C158" t="n">
         <v>113.0100021362305</v>
@@ -4113,7 +4113,7 @@
         <v>44057</v>
       </c>
       <c r="B160" t="n">
-        <v>112.1693572998047</v>
+        <v>112.1693649291992</v>
       </c>
       <c r="C160" t="n">
         <v>114.9075012207031</v>
@@ -4136,7 +4136,7 @@
         <v>44060</v>
       </c>
       <c r="B161" t="n">
-        <v>111.8764877319336</v>
+        <v>111.8765106201172</v>
       </c>
       <c r="C161" t="n">
         <v>114.6074981689453</v>
@@ -4159,7 +4159,7 @@
         <v>44061</v>
       </c>
       <c r="B162" t="n">
-        <v>112.8087463378906</v>
+        <v>112.8087310791016</v>
       </c>
       <c r="C162" t="n">
         <v>115.5625</v>
@@ -4205,7 +4205,7 @@
         <v>44063</v>
       </c>
       <c r="B164" t="n">
-        <v>115.4566192626953</v>
+        <v>115.4566040039062</v>
       </c>
       <c r="C164" t="n">
         <v>118.2750015258789</v>
@@ -4228,7 +4228,7 @@
         <v>44064</v>
       </c>
       <c r="B165" t="n">
-        <v>121.406379699707</v>
+        <v>121.406364440918</v>
       </c>
       <c r="C165" t="n">
         <v>124.370002746582</v>
@@ -4251,7 +4251,7 @@
         <v>44067</v>
       </c>
       <c r="B166" t="n">
-        <v>122.8584213256836</v>
+        <v>122.8584289550781</v>
       </c>
       <c r="C166" t="n">
         <v>125.8574981689453</v>
@@ -4297,7 +4297,7 @@
         <v>44069</v>
       </c>
       <c r="B168" t="n">
-        <v>123.5075607299805</v>
+        <v>123.5075759887695</v>
       </c>
       <c r="C168" t="n">
         <v>126.5224990844727</v>
@@ -4320,7 +4320,7 @@
         <v>44070</v>
       </c>
       <c r="B169" t="n">
-        <v>122.0311279296875</v>
+        <v>122.031120300293</v>
       </c>
       <c r="C169" t="n">
         <v>125.0100021362305</v>
@@ -4343,7 +4343,7 @@
         <v>44071</v>
       </c>
       <c r="B170" t="n">
-        <v>121.8334426879883</v>
+        <v>121.8334503173828</v>
       </c>
       <c r="C170" t="n">
         <v>124.807502746582</v>
@@ -4366,7 +4366,7 @@
         <v>44074</v>
       </c>
       <c r="B171" t="n">
-        <v>125.965087890625</v>
+        <v>125.9650802612305</v>
       </c>
       <c r="C171" t="n">
         <v>129.0399932861328</v>
@@ -4435,7 +4435,7 @@
         <v>44077</v>
       </c>
       <c r="B174" t="n">
-        <v>117.99951171875</v>
+        <v>117.9995193481445</v>
       </c>
       <c r="C174" t="n">
         <v>120.879997253418</v>
@@ -4458,7 +4458,7 @@
         <v>44078</v>
       </c>
       <c r="B175" t="n">
-        <v>118.0776214599609</v>
+        <v>118.0776290893555</v>
       </c>
       <c r="C175" t="n">
         <v>120.9599990844727</v>
@@ -4504,7 +4504,7 @@
         <v>44083</v>
       </c>
       <c r="B177" t="n">
-        <v>114.5243530273438</v>
+        <v>114.5243759155273</v>
       </c>
       <c r="C177" t="n">
         <v>117.3199996948242</v>
@@ -4527,7 +4527,7 @@
         <v>44084</v>
       </c>
       <c r="B178" t="n">
-        <v>110.7856292724609</v>
+        <v>110.7856369018555</v>
       </c>
       <c r="C178" t="n">
         <v>113.4899978637695</v>
@@ -4550,7 +4550,7 @@
         <v>44085</v>
       </c>
       <c r="B179" t="n">
-        <v>109.3311386108398</v>
+        <v>109.3311233520508</v>
       </c>
       <c r="C179" t="n">
         <v>112</v>
@@ -4596,7 +4596,7 @@
         <v>44089</v>
       </c>
       <c r="B181" t="n">
-        <v>112.7867736816406</v>
+        <v>112.7867889404297</v>
       </c>
       <c r="C181" t="n">
         <v>115.5400009155273</v>
@@ -4619,7 +4619,7 @@
         <v>44090</v>
       </c>
       <c r="B182" t="n">
-        <v>109.4580459594727</v>
+        <v>109.4580383300781</v>
       </c>
       <c r="C182" t="n">
         <v>112.129997253418</v>
@@ -4642,7 +4642,7 @@
         <v>44091</v>
       </c>
       <c r="B183" t="n">
-        <v>107.710693359375</v>
+        <v>107.7106857299805</v>
       </c>
       <c r="C183" t="n">
         <v>110.3399963378906</v>
@@ -4665,7 +4665,7 @@
         <v>44092</v>
       </c>
       <c r="B184" t="n">
-        <v>104.2941055297852</v>
+        <v>104.2940979003906</v>
       </c>
       <c r="C184" t="n">
         <v>106.8399963378906</v>
@@ -4688,7 +4688,7 @@
         <v>44095</v>
       </c>
       <c r="B185" t="n">
-        <v>107.4568862915039</v>
+        <v>107.4569091796875</v>
       </c>
       <c r="C185" t="n">
         <v>110.0800018310547</v>
@@ -4734,7 +4734,7 @@
         <v>44097</v>
       </c>
       <c r="B187" t="n">
-        <v>104.5674362182617</v>
+        <v>104.5674285888672</v>
       </c>
       <c r="C187" t="n">
         <v>107.120002746582</v>
@@ -4757,7 +4757,7 @@
         <v>44098</v>
       </c>
       <c r="B188" t="n">
-        <v>105.6412048339844</v>
+        <v>105.6412124633789</v>
       </c>
       <c r="C188" t="n">
         <v>108.2200012207031</v>
@@ -4780,7 +4780,7 @@
         <v>44099</v>
       </c>
       <c r="B189" t="n">
-        <v>109.6044692993164</v>
+        <v>109.6044845581055</v>
       </c>
       <c r="C189" t="n">
         <v>112.2799987792969</v>
@@ -4803,7 +4803,7 @@
         <v>44102</v>
       </c>
       <c r="B190" t="n">
-        <v>112.220588684082</v>
+        <v>112.2205963134766</v>
       </c>
       <c r="C190" t="n">
         <v>114.9599990844727</v>
@@ -4826,7 +4826,7 @@
         <v>44103</v>
       </c>
       <c r="B191" t="n">
-        <v>111.3713226318359</v>
+        <v>111.371337890625</v>
       </c>
       <c r="C191" t="n">
         <v>114.0899963378906</v>
@@ -4849,7 +4849,7 @@
         <v>44104</v>
       </c>
       <c r="B192" t="n">
-        <v>113.0503387451172</v>
+        <v>113.0503311157227</v>
       </c>
       <c r="C192" t="n">
         <v>115.8099975585938</v>
@@ -4872,7 +4872,7 @@
         <v>44105</v>
       </c>
       <c r="B193" t="n">
-        <v>114.0069885253906</v>
+        <v>114.0070037841797</v>
       </c>
       <c r="C193" t="n">
         <v>116.7900009155273</v>
@@ -4895,7 +4895,7 @@
         <v>44106</v>
       </c>
       <c r="B194" t="n">
-        <v>110.3268051147461</v>
+        <v>110.3268356323242</v>
       </c>
       <c r="C194" t="n">
         <v>113.0199966430664</v>
@@ -4918,7 +4918,7 @@
         <v>44109</v>
       </c>
       <c r="B195" t="n">
-        <v>113.7239151000977</v>
+        <v>113.7239074707031</v>
       </c>
       <c r="C195" t="n">
         <v>116.5</v>
@@ -4941,7 +4941,7 @@
         <v>44110</v>
       </c>
       <c r="B196" t="n">
-        <v>110.4635009765625</v>
+        <v>110.463493347168</v>
       </c>
       <c r="C196" t="n">
         <v>113.1600036621094</v>
@@ -4964,7 +4964,7 @@
         <v>44111</v>
       </c>
       <c r="B197" t="n">
-        <v>112.3377532958984</v>
+        <v>112.3377456665039</v>
       </c>
       <c r="C197" t="n">
         <v>115.0800018310547</v>
@@ -4987,7 +4987,7 @@
         <v>44112</v>
       </c>
       <c r="B198" t="n">
-        <v>112.2303771972656</v>
+        <v>112.2303619384766</v>
       </c>
       <c r="C198" t="n">
         <v>114.9700012207031</v>
@@ -5010,7 +5010,7 @@
         <v>44113</v>
       </c>
       <c r="B199" t="n">
-        <v>114.1827163696289</v>
+        <v>114.1827239990234</v>
       </c>
       <c r="C199" t="n">
         <v>116.9700012207031</v>
@@ -5056,7 +5056,7 @@
         <v>44117</v>
       </c>
       <c r="B201" t="n">
-        <v>118.2142791748047</v>
+        <v>118.2142944335938</v>
       </c>
       <c r="C201" t="n">
         <v>121.0999984741211</v>
@@ -5125,7 +5125,7 @@
         <v>44120</v>
       </c>
       <c r="B204" t="n">
-        <v>116.1838455200195</v>
+        <v>116.1838607788086</v>
       </c>
       <c r="C204" t="n">
         <v>119.0199966430664</v>
@@ -5148,7 +5148,7 @@
         <v>44123</v>
       </c>
       <c r="B205" t="n">
-        <v>113.2163009643555</v>
+        <v>113.2162857055664</v>
       </c>
       <c r="C205" t="n">
         <v>115.9800033569336</v>
@@ -5171,7 +5171,7 @@
         <v>44124</v>
       </c>
       <c r="B206" t="n">
-        <v>114.709846496582</v>
+        <v>114.709831237793</v>
       </c>
       <c r="C206" t="n">
         <v>117.5100021362305</v>
@@ -5217,7 +5217,7 @@
         <v>44126</v>
       </c>
       <c r="B208" t="n">
-        <v>112.9917831420898</v>
+        <v>112.9917755126953</v>
       </c>
       <c r="C208" t="n">
         <v>115.75</v>
@@ -5240,7 +5240,7 @@
         <v>44127</v>
       </c>
       <c r="B209" t="n">
-        <v>112.2987060546875</v>
+        <v>112.298698425293</v>
       </c>
       <c r="C209" t="n">
         <v>115.0400009155273</v>
@@ -5263,7 +5263,7 @@
         <v>44130</v>
       </c>
       <c r="B210" t="n">
-        <v>112.3084411621094</v>
+        <v>112.308464050293</v>
       </c>
       <c r="C210" t="n">
         <v>115.0500030517578</v>
@@ -5286,7 +5286,7 @@
         <v>44131</v>
       </c>
       <c r="B211" t="n">
-        <v>113.8215255737305</v>
+        <v>113.8215179443359</v>
       </c>
       <c r="C211" t="n">
         <v>116.5999984741211</v>
@@ -5309,7 +5309,7 @@
         <v>44132</v>
       </c>
       <c r="B212" t="n">
-        <v>108.5501937866211</v>
+        <v>108.5502014160156</v>
       </c>
       <c r="C212" t="n">
         <v>111.1999969482422</v>
@@ -5332,7 +5332,7 @@
         <v>44133</v>
       </c>
       <c r="B213" t="n">
-        <v>112.572021484375</v>
+        <v>112.5720291137695</v>
       </c>
       <c r="C213" t="n">
         <v>115.3199996948242</v>
@@ -5355,7 +5355,7 @@
         <v>44134</v>
       </c>
       <c r="B214" t="n">
-        <v>106.2659759521484</v>
+        <v>106.2659530639648</v>
       </c>
       <c r="C214" t="n">
         <v>108.8600006103516</v>
@@ -5401,7 +5401,7 @@
         <v>44138</v>
       </c>
       <c r="B216" t="n">
-        <v>107.8083038330078</v>
+        <v>107.8083190917969</v>
       </c>
       <c r="C216" t="n">
         <v>110.4400024414062</v>
@@ -5447,7 +5447,7 @@
         <v>44140</v>
       </c>
       <c r="B218" t="n">
-        <v>116.1936264038086</v>
+        <v>116.1936187744141</v>
       </c>
       <c r="C218" t="n">
         <v>119.0299987792969</v>
@@ -5470,7 +5470,7 @@
         <v>44141</v>
       </c>
       <c r="B219" t="n">
-        <v>116.0616226196289</v>
+        <v>116.0616302490234</v>
       </c>
       <c r="C219" t="n">
         <v>118.6900024414062</v>
@@ -5493,7 +5493,7 @@
         <v>44144</v>
       </c>
       <c r="B220" t="n">
-        <v>113.7440872192383</v>
+        <v>113.7440948486328</v>
       </c>
       <c r="C220" t="n">
         <v>116.3199996948242</v>
@@ -5539,7 +5539,7 @@
         <v>44146</v>
       </c>
       <c r="B222" t="n">
-        <v>116.8438720703125</v>
+        <v>116.8438873291016</v>
       </c>
       <c r="C222" t="n">
         <v>119.4899978637695</v>
@@ -5608,7 +5608,7 @@
         <v>44151</v>
       </c>
       <c r="B225" t="n">
-        <v>117.6359558105469</v>
+        <v>117.6359710693359</v>
       </c>
       <c r="C225" t="n">
         <v>120.3000030517578</v>
@@ -5654,7 +5654,7 @@
         <v>44153</v>
       </c>
       <c r="B227" t="n">
-        <v>115.4162368774414</v>
+        <v>115.4162063598633</v>
       </c>
       <c r="C227" t="n">
         <v>118.0299987792969</v>
@@ -5677,7 +5677,7 @@
         <v>44154</v>
       </c>
       <c r="B228" t="n">
-        <v>116.0127105712891</v>
+        <v>116.0127182006836</v>
       </c>
       <c r="C228" t="n">
         <v>118.6399993896484</v>
@@ -5723,7 +5723,7 @@
         <v>44158</v>
       </c>
       <c r="B230" t="n">
-        <v>111.3287811279297</v>
+        <v>111.3287963867188</v>
       </c>
       <c r="C230" t="n">
         <v>113.8499984741211</v>
@@ -5746,7 +5746,7 @@
         <v>44159</v>
       </c>
       <c r="B231" t="n">
-        <v>112.6195449829102</v>
+        <v>112.6195602416992</v>
       </c>
       <c r="C231" t="n">
         <v>115.1699981689453</v>
@@ -5769,7 +5769,7 @@
         <v>44160</v>
       </c>
       <c r="B232" t="n">
-        <v>113.4605178833008</v>
+        <v>113.4605102539062</v>
       </c>
       <c r="C232" t="n">
         <v>116.0299987792969</v>
@@ -5792,7 +5792,7 @@
         <v>44162</v>
       </c>
       <c r="B233" t="n">
-        <v>114.0081100463867</v>
+        <v>114.0081176757812</v>
       </c>
       <c r="C233" t="n">
         <v>116.5899963378906</v>
@@ -5838,7 +5838,7 @@
         <v>44166</v>
       </c>
       <c r="B235" t="n">
-        <v>120.0023651123047</v>
+        <v>120.0023727416992</v>
       </c>
       <c r="C235" t="n">
         <v>122.7200012207031</v>
@@ -5861,7 +5861,7 @@
         <v>44167</v>
       </c>
       <c r="B236" t="n">
-        <v>120.3544006347656</v>
+        <v>120.3543930053711</v>
       </c>
       <c r="C236" t="n">
         <v>123.0800018310547</v>
@@ -5884,7 +5884,7 @@
         <v>44168</v>
       </c>
       <c r="B237" t="n">
-        <v>120.2174987792969</v>
+        <v>120.2175064086914</v>
       </c>
       <c r="C237" t="n">
         <v>122.9400024414062</v>
@@ -5907,7 +5907,7 @@
         <v>44169</v>
       </c>
       <c r="B238" t="n">
-        <v>119.5427932739258</v>
+        <v>119.5427703857422</v>
       </c>
       <c r="C238" t="n">
         <v>122.25</v>
@@ -5930,7 +5930,7 @@
         <v>44172</v>
       </c>
       <c r="B239" t="n">
-        <v>121.0095672607422</v>
+        <v>121.0095596313477</v>
       </c>
       <c r="C239" t="n">
         <v>123.75</v>
@@ -5953,7 +5953,7 @@
         <v>44173</v>
       </c>
       <c r="B240" t="n">
-        <v>121.6255874633789</v>
+        <v>121.625602722168</v>
       </c>
       <c r="C240" t="n">
         <v>124.379997253418</v>
@@ -5976,7 +5976,7 @@
         <v>44174</v>
       </c>
       <c r="B241" t="n">
-        <v>119.0831680297852</v>
+        <v>119.0831756591797</v>
       </c>
       <c r="C241" t="n">
         <v>121.7799987792969</v>
@@ -6022,7 +6022,7 @@
         <v>44176</v>
       </c>
       <c r="B243" t="n">
-        <v>119.6992340087891</v>
+        <v>119.6992492675781</v>
       </c>
       <c r="C243" t="n">
         <v>122.4100036621094</v>
@@ -6045,7 +6045,7 @@
         <v>44179</v>
       </c>
       <c r="B244" t="n">
-        <v>119.0831680297852</v>
+        <v>119.0831756591797</v>
       </c>
       <c r="C244" t="n">
         <v>121.7799987792969</v>
@@ -6068,7 +6068,7 @@
         <v>44180</v>
       </c>
       <c r="B245" t="n">
-        <v>125.0480880737305</v>
+        <v>125.048095703125</v>
       </c>
       <c r="C245" t="n">
         <v>127.879997253418</v>
@@ -6114,7 +6114,7 @@
         <v>44182</v>
       </c>
       <c r="B247" t="n">
-        <v>125.8499374389648</v>
+        <v>125.8499298095703</v>
       </c>
       <c r="C247" t="n">
         <v>128.6999969482422</v>
@@ -6137,7 +6137,7 @@
         <v>44183</v>
       </c>
       <c r="B248" t="n">
-        <v>123.8551025390625</v>
+        <v>123.8551254272461</v>
       </c>
       <c r="C248" t="n">
         <v>126.6600036621094</v>
@@ -6160,7 +6160,7 @@
         <v>44186</v>
       </c>
       <c r="B249" t="n">
-        <v>125.3903503417969</v>
+        <v>125.3903579711914</v>
       </c>
       <c r="C249" t="n">
         <v>128.2299957275391</v>
@@ -6183,7 +6183,7 @@
         <v>44187</v>
       </c>
       <c r="B250" t="n">
-        <v>128.9595489501953</v>
+        <v>128.9595031738281</v>
       </c>
       <c r="C250" t="n">
         <v>131.8800048828125</v>
@@ -6206,7 +6206,7 @@
         <v>44188</v>
       </c>
       <c r="B251" t="n">
-        <v>128.0599060058594</v>
+        <v>128.0599212646484</v>
       </c>
       <c r="C251" t="n">
         <v>130.9600067138672</v>
@@ -6321,7 +6321,7 @@
         <v>44196</v>
       </c>
       <c r="B256" t="n">
-        <v>129.7516021728516</v>
+        <v>129.7515716552734</v>
       </c>
       <c r="C256" t="n">
         <v>132.6900024414062</v>
@@ -6344,7 +6344,7 @@
         <v>44200</v>
       </c>
       <c r="B257" t="n">
-        <v>126.5442123413086</v>
+        <v>126.5442199707031</v>
       </c>
       <c r="C257" t="n">
         <v>129.4100036621094</v>
@@ -6367,7 +6367,7 @@
         <v>44201</v>
       </c>
       <c r="B258" t="n">
-        <v>128.1087493896484</v>
+        <v>128.1087951660156</v>
       </c>
       <c r="C258" t="n">
         <v>131.0099945068359</v>
@@ -6413,7 +6413,7 @@
         <v>44203</v>
       </c>
       <c r="B260" t="n">
-        <v>128.0207672119141</v>
+        <v>128.0208129882812</v>
       </c>
       <c r="C260" t="n">
         <v>130.9199981689453</v>
@@ -6436,7 +6436,7 @@
         <v>44204</v>
       </c>
       <c r="B261" t="n">
-        <v>129.1257629394531</v>
+        <v>129.1257476806641</v>
       </c>
       <c r="C261" t="n">
         <v>132.0500030517578</v>
@@ -6459,7 +6459,7 @@
         <v>44207</v>
       </c>
       <c r="B262" t="n">
-        <v>126.1237640380859</v>
+        <v>126.1237335205078</v>
       </c>
       <c r="C262" t="n">
         <v>128.9799957275391</v>
@@ -6505,7 +6505,7 @@
         <v>44209</v>
       </c>
       <c r="B264" t="n">
-        <v>127.9914627075195</v>
+        <v>127.9914245605469</v>
       </c>
       <c r="C264" t="n">
         <v>130.8899993896484</v>
@@ -6528,7 +6528,7 @@
         <v>44210</v>
       </c>
       <c r="B265" t="n">
-        <v>126.055290222168</v>
+        <v>126.0552978515625</v>
       </c>
       <c r="C265" t="n">
         <v>128.9100036621094</v>
@@ -6574,7 +6574,7 @@
         <v>44215</v>
       </c>
       <c r="B267" t="n">
-        <v>124.9992065429688</v>
+        <v>124.9992141723633</v>
       </c>
       <c r="C267" t="n">
         <v>127.8300018310547</v>
@@ -6597,7 +6597,7 @@
         <v>44216</v>
       </c>
       <c r="B268" t="n">
-        <v>129.1061706542969</v>
+        <v>129.106201171875</v>
       </c>
       <c r="C268" t="n">
         <v>132.0299987792969</v>
@@ -6620,7 +6620,7 @@
         <v>44217</v>
       </c>
       <c r="B269" t="n">
-        <v>133.8389892578125</v>
+        <v>133.8390197753906</v>
       </c>
       <c r="C269" t="n">
         <v>136.8699951171875</v>
@@ -6643,7 +6643,7 @@
         <v>44218</v>
       </c>
       <c r="B270" t="n">
-        <v>135.9902954101562</v>
+        <v>135.9903259277344</v>
       </c>
       <c r="C270" t="n">
         <v>139.0700073242188</v>
@@ -6689,7 +6689,7 @@
         <v>44222</v>
       </c>
       <c r="B272" t="n">
-        <v>139.9897155761719</v>
+        <v>139.9897308349609</v>
       </c>
       <c r="C272" t="n">
         <v>143.1600036621094</v>
@@ -6712,7 +6712,7 @@
         <v>44223</v>
       </c>
       <c r="B273" t="n">
-        <v>138.9140777587891</v>
+        <v>138.9140930175781</v>
       </c>
       <c r="C273" t="n">
         <v>142.0599975585938</v>
@@ -6735,7 +6735,7 @@
         <v>44224</v>
       </c>
       <c r="B274" t="n">
-        <v>134.0541229248047</v>
+        <v>134.0541076660156</v>
       </c>
       <c r="C274" t="n">
         <v>137.0899963378906</v>
@@ -6758,7 +6758,7 @@
         <v>44225</v>
       </c>
       <c r="B275" t="n">
-        <v>129.0377502441406</v>
+        <v>129.0377349853516</v>
       </c>
       <c r="C275" t="n">
         <v>131.9600067138672</v>
@@ -6781,7 +6781,7 @@
         <v>44228</v>
       </c>
       <c r="B276" t="n">
-        <v>131.1694793701172</v>
+        <v>131.1694641113281</v>
       </c>
       <c r="C276" t="n">
         <v>134.1399993896484</v>
@@ -6804,7 +6804,7 @@
         <v>44229</v>
       </c>
       <c r="B277" t="n">
-        <v>132.0006713867188</v>
+        <v>132.0006408691406</v>
       </c>
       <c r="C277" t="n">
         <v>134.9900054931641</v>
@@ -6827,7 +6827,7 @@
         <v>44230</v>
       </c>
       <c r="B278" t="n">
-        <v>130.9739074707031</v>
+        <v>130.9739227294922</v>
       </c>
       <c r="C278" t="n">
         <v>133.9400024414062</v>
@@ -6850,7 +6850,7 @@
         <v>44231</v>
       </c>
       <c r="B279" t="n">
-        <v>134.3474731445312</v>
+        <v>134.3475189208984</v>
       </c>
       <c r="C279" t="n">
         <v>137.3899993896484</v>
@@ -6873,7 +6873,7 @@
         <v>44232</v>
       </c>
       <c r="B280" t="n">
-        <v>133.9313049316406</v>
+        <v>133.9312744140625</v>
       </c>
       <c r="C280" t="n">
         <v>136.7599945068359</v>
@@ -6919,7 +6919,7 @@
         <v>44236</v>
       </c>
       <c r="B282" t="n">
-        <v>133.19677734375</v>
+        <v>133.1967926025391</v>
       </c>
       <c r="C282" t="n">
         <v>136.0099945068359</v>
@@ -6942,7 +6942,7 @@
         <v>44237</v>
       </c>
       <c r="B283" t="n">
-        <v>132.589599609375</v>
+        <v>132.5896301269531</v>
       </c>
       <c r="C283" t="n">
         <v>135.3899993896484</v>
@@ -6988,7 +6988,7 @@
         <v>44239</v>
       </c>
       <c r="B285" t="n">
-        <v>132.5700531005859</v>
+        <v>132.5700225830078</v>
       </c>
       <c r="C285" t="n">
         <v>135.3699951171875</v>
@@ -7011,7 +7011,7 @@
         <v>44243</v>
       </c>
       <c r="B286" t="n">
-        <v>130.4351348876953</v>
+        <v>130.4351654052734</v>
       </c>
       <c r="C286" t="n">
         <v>133.1900024414062</v>
@@ -7034,7 +7034,7 @@
         <v>44244</v>
       </c>
       <c r="B287" t="n">
-        <v>128.1337280273438</v>
+        <v>128.1336975097656</v>
       </c>
       <c r="C287" t="n">
         <v>130.8399963378906</v>
@@ -7057,7 +7057,7 @@
         <v>44245</v>
       </c>
       <c r="B288" t="n">
-        <v>127.0271148681641</v>
+        <v>127.0270919799805</v>
       </c>
       <c r="C288" t="n">
         <v>129.7100067138672</v>
@@ -7080,7 +7080,7 @@
         <v>44246</v>
       </c>
       <c r="B289" t="n">
-        <v>127.1837692260742</v>
+        <v>127.1837921142578</v>
       </c>
       <c r="C289" t="n">
         <v>129.8699951171875</v>
@@ -7103,7 +7103,7 @@
         <v>44249</v>
       </c>
       <c r="B290" t="n">
-        <v>123.3938369750977</v>
+        <v>123.3938293457031</v>
       </c>
       <c r="C290" t="n">
         <v>126</v>
@@ -7149,7 +7149,7 @@
         <v>44251</v>
       </c>
       <c r="B292" t="n">
-        <v>122.7573013305664</v>
+        <v>122.7572784423828</v>
       </c>
       <c r="C292" t="n">
         <v>125.3499984741211</v>
@@ -7195,7 +7195,7 @@
         <v>44253</v>
       </c>
       <c r="B294" t="n">
-        <v>118.7518692016602</v>
+        <v>118.7518844604492</v>
       </c>
       <c r="C294" t="n">
         <v>121.2600021362305</v>
@@ -7241,7 +7241,7 @@
         <v>44257</v>
       </c>
       <c r="B296" t="n">
-        <v>122.5320510864258</v>
+        <v>122.5320358276367</v>
       </c>
       <c r="C296" t="n">
         <v>125.120002746582</v>
@@ -7264,7 +7264,7 @@
         <v>44258</v>
       </c>
       <c r="B297" t="n">
-        <v>119.5353317260742</v>
+        <v>119.5353393554688</v>
       </c>
       <c r="C297" t="n">
         <v>122.0599975585938</v>
@@ -7287,7 +7287,7 @@
         <v>44259</v>
       </c>
       <c r="B298" t="n">
-        <v>117.6452560424805</v>
+        <v>117.6452484130859</v>
       </c>
       <c r="C298" t="n">
         <v>120.129997253418</v>
@@ -7310,7 +7310,7 @@
         <v>44260</v>
       </c>
       <c r="B299" t="n">
-        <v>118.9085845947266</v>
+        <v>118.9085693359375</v>
       </c>
       <c r="C299" t="n">
         <v>121.4199981689453</v>
@@ -7356,7 +7356,7 @@
         <v>44264</v>
       </c>
       <c r="B301" t="n">
-        <v>118.5853958129883</v>
+        <v>118.5854034423828</v>
       </c>
       <c r="C301" t="n">
         <v>121.0899963378906</v>
@@ -7379,7 +7379,7 @@
         <v>44265</v>
       </c>
       <c r="B302" t="n">
-        <v>117.4983596801758</v>
+        <v>117.4983749389648</v>
       </c>
       <c r="C302" t="n">
         <v>119.9800033569336</v>
@@ -7402,7 +7402,7 @@
         <v>44266</v>
       </c>
       <c r="B303" t="n">
-        <v>119.4374160766602</v>
+        <v>119.4374084472656</v>
       </c>
       <c r="C303" t="n">
         <v>121.9599990844727</v>
@@ -7425,7 +7425,7 @@
         <v>44267</v>
       </c>
       <c r="B304" t="n">
-        <v>118.5266342163086</v>
+        <v>118.5266494750977</v>
       </c>
       <c r="C304" t="n">
         <v>121.0299987792969</v>
@@ -7448,7 +7448,7 @@
         <v>44270</v>
       </c>
       <c r="B305" t="n">
-        <v>121.425407409668</v>
+        <v>121.425422668457</v>
       </c>
       <c r="C305" t="n">
         <v>123.9899978637695</v>
@@ -7471,7 +7471,7 @@
         <v>44271</v>
       </c>
       <c r="B306" t="n">
-        <v>122.9727249145508</v>
+        <v>122.9727325439453</v>
       </c>
       <c r="C306" t="n">
         <v>125.5699996948242</v>
@@ -7494,7 +7494,7 @@
         <v>44272</v>
       </c>
       <c r="B307" t="n">
-        <v>122.1794891357422</v>
+        <v>122.1794967651367</v>
       </c>
       <c r="C307" t="n">
         <v>124.7600021362305</v>
@@ -7517,7 +7517,7 @@
         <v>44273</v>
       </c>
       <c r="B308" t="n">
-        <v>118.0369644165039</v>
+        <v>118.0369720458984</v>
       </c>
       <c r="C308" t="n">
         <v>120.5299987792969</v>
@@ -7540,7 +7540,7 @@
         <v>44274</v>
       </c>
       <c r="B309" t="n">
-        <v>117.5081558227539</v>
+        <v>117.5081405639648</v>
       </c>
       <c r="C309" t="n">
         <v>119.9899978637695</v>
@@ -7586,7 +7586,7 @@
         <v>44278</v>
       </c>
       <c r="B311" t="n">
-        <v>120.0054168701172</v>
+        <v>120.0054016113281</v>
       </c>
       <c r="C311" t="n">
         <v>122.5400009155273</v>
@@ -7609,7 +7609,7 @@
         <v>44279</v>
       </c>
       <c r="B312" t="n">
-        <v>117.6060791015625</v>
+        <v>117.606086730957</v>
       </c>
       <c r="C312" t="n">
         <v>120.0899963378906</v>
@@ -7632,7 +7632,7 @@
         <v>44280</v>
       </c>
       <c r="B313" t="n">
-        <v>118.0957336425781</v>
+        <v>118.0957412719727</v>
       </c>
       <c r="C313" t="n">
         <v>120.5899963378906</v>
@@ -7655,7 +7655,7 @@
         <v>44281</v>
       </c>
       <c r="B314" t="n">
-        <v>118.7029266357422</v>
+        <v>118.7029037475586</v>
       </c>
       <c r="C314" t="n">
         <v>121.2099990844727</v>
@@ -7678,7 +7678,7 @@
         <v>44284</v>
       </c>
       <c r="B315" t="n">
-        <v>118.8791885375977</v>
+        <v>118.8791961669922</v>
       </c>
       <c r="C315" t="n">
         <v>121.3899993896484</v>
@@ -7701,7 +7701,7 @@
         <v>44285</v>
       </c>
       <c r="B316" t="n">
-        <v>117.4200134277344</v>
+        <v>117.4200057983398</v>
       </c>
       <c r="C316" t="n">
         <v>119.9000015258789</v>
@@ -7724,7 +7724,7 @@
         <v>44286</v>
       </c>
       <c r="B317" t="n">
-        <v>119.6234893798828</v>
+        <v>119.6234817504883</v>
       </c>
       <c r="C317" t="n">
         <v>122.1500015258789</v>
@@ -7770,7 +7770,7 @@
         <v>44291</v>
       </c>
       <c r="B319" t="n">
-        <v>123.2959060668945</v>
+        <v>123.2959136962891</v>
       </c>
       <c r="C319" t="n">
         <v>125.9000015258789</v>
@@ -7816,7 +7816,7 @@
         <v>44293</v>
       </c>
       <c r="B321" t="n">
-        <v>125.2545471191406</v>
+        <v>125.2545547485352</v>
       </c>
       <c r="C321" t="n">
         <v>127.9000015258789</v>
@@ -7839,7 +7839,7 @@
         <v>44294</v>
       </c>
       <c r="B322" t="n">
-        <v>127.6636810302734</v>
+        <v>127.6636581420898</v>
       </c>
       <c r="C322" t="n">
         <v>130.3600006103516</v>
@@ -7885,7 +7885,7 @@
         <v>44298</v>
       </c>
       <c r="B324" t="n">
-        <v>128.5254821777344</v>
+        <v>128.5254669189453</v>
       </c>
       <c r="C324" t="n">
         <v>131.2400054931641</v>
@@ -7908,7 +7908,7 @@
         <v>44299</v>
       </c>
       <c r="B325" t="n">
-        <v>131.6494750976562</v>
+        <v>131.6494598388672</v>
       </c>
       <c r="C325" t="n">
         <v>134.4299926757812</v>
@@ -7931,7 +7931,7 @@
         <v>44300</v>
       </c>
       <c r="B326" t="n">
-        <v>129.2991333007812</v>
+        <v>129.2991027832031</v>
       </c>
       <c r="C326" t="n">
         <v>132.0299987792969</v>
@@ -7954,7 +7954,7 @@
         <v>44301</v>
       </c>
       <c r="B327" t="n">
-        <v>131.7180328369141</v>
+        <v>131.718017578125</v>
       </c>
       <c r="C327" t="n">
         <v>134.5</v>
@@ -7977,7 +7977,7 @@
         <v>44302</v>
       </c>
       <c r="B328" t="n">
-        <v>131.3850708007812</v>
+        <v>131.3850250244141</v>
       </c>
       <c r="C328" t="n">
         <v>134.1600036621094</v>
@@ -8000,7 +8000,7 @@
         <v>44305</v>
       </c>
       <c r="B329" t="n">
-        <v>132.0509796142578</v>
+        <v>132.0509948730469</v>
       </c>
       <c r="C329" t="n">
         <v>134.8399963378906</v>
@@ -8023,7 +8023,7 @@
         <v>44306</v>
       </c>
       <c r="B330" t="n">
-        <v>130.3567810058594</v>
+        <v>130.3567962646484</v>
       </c>
       <c r="C330" t="n">
         <v>133.1100006103516</v>
@@ -8046,7 +8046,7 @@
         <v>44307</v>
       </c>
       <c r="B331" t="n">
-        <v>130.7387237548828</v>
+        <v>130.7387084960938</v>
       </c>
       <c r="C331" t="n">
         <v>133.5</v>
@@ -8138,7 +8138,7 @@
         <v>44313</v>
       </c>
       <c r="B335" t="n">
-        <v>131.6102752685547</v>
+        <v>131.6103057861328</v>
       </c>
       <c r="C335" t="n">
         <v>134.3899993896484</v>
@@ -8184,7 +8184,7 @@
         <v>44315</v>
       </c>
       <c r="B337" t="n">
-        <v>130.7191619873047</v>
+        <v>130.7191467285156</v>
       </c>
       <c r="C337" t="n">
         <v>133.4799957275391</v>
@@ -8207,7 +8207,7 @@
         <v>44316</v>
       </c>
       <c r="B338" t="n">
-        <v>128.7408905029297</v>
+        <v>128.7408752441406</v>
       </c>
       <c r="C338" t="n">
         <v>131.4600067138672</v>
@@ -8230,7 +8230,7 @@
         <v>44319</v>
       </c>
       <c r="B339" t="n">
-        <v>129.7985687255859</v>
+        <v>129.7985229492188</v>
       </c>
       <c r="C339" t="n">
         <v>132.5399932861328</v>
@@ -8253,7 +8253,7 @@
         <v>44320</v>
       </c>
       <c r="B340" t="n">
-        <v>125.2055740356445</v>
+        <v>125.2055587768555</v>
       </c>
       <c r="C340" t="n">
         <v>127.8499984741211</v>
@@ -8276,7 +8276,7 @@
         <v>44321</v>
       </c>
       <c r="B341" t="n">
-        <v>125.4504089355469</v>
+        <v>125.4504165649414</v>
       </c>
       <c r="C341" t="n">
         <v>128.1000061035156</v>
@@ -8299,7 +8299,7 @@
         <v>44322</v>
       </c>
       <c r="B342" t="n">
-        <v>127.0565032958984</v>
+        <v>127.0564880371094</v>
       </c>
       <c r="C342" t="n">
         <v>129.7400054931641</v>
@@ -8322,7 +8322,7 @@
         <v>44323</v>
       </c>
       <c r="B343" t="n">
-        <v>127.7333450317383</v>
+        <v>127.7333755493164</v>
       </c>
       <c r="C343" t="n">
         <v>130.2100067138672</v>
@@ -8345,7 +8345,7 @@
         <v>44326</v>
       </c>
       <c r="B344" t="n">
-        <v>124.4372711181641</v>
+        <v>124.4372787475586</v>
       </c>
       <c r="C344" t="n">
         <v>126.8499984741211</v>
@@ -8368,7 +8368,7 @@
         <v>44327</v>
       </c>
       <c r="B345" t="n">
-        <v>123.5151519775391</v>
+        <v>123.5151596069336</v>
       </c>
       <c r="C345" t="n">
         <v>125.9100036621094</v>
@@ -8437,7 +8437,7 @@
         <v>44330</v>
       </c>
       <c r="B348" t="n">
-        <v>125.0258712768555</v>
+        <v>125.0258560180664</v>
       </c>
       <c r="C348" t="n">
         <v>127.4499969482422</v>
@@ -8460,7 +8460,7 @@
         <v>44333</v>
       </c>
       <c r="B349" t="n">
-        <v>123.8683013916016</v>
+        <v>123.868293762207</v>
       </c>
       <c r="C349" t="n">
         <v>126.2699966430664</v>
@@ -8506,7 +8506,7 @@
         <v>44335</v>
       </c>
       <c r="B351" t="n">
-        <v>122.318359375</v>
+        <v>122.3183670043945</v>
       </c>
       <c r="C351" t="n">
         <v>124.6900024414062</v>
@@ -8552,7 +8552,7 @@
         <v>44337</v>
       </c>
       <c r="B353" t="n">
-        <v>123.0442657470703</v>
+        <v>123.0442581176758</v>
       </c>
       <c r="C353" t="n">
         <v>125.4300003051758</v>
@@ -8575,7 +8575,7 @@
         <v>44340</v>
       </c>
       <c r="B354" t="n">
-        <v>124.6825180053711</v>
+        <v>124.6825103759766</v>
       </c>
       <c r="C354" t="n">
         <v>127.0999984741211</v>
@@ -8621,7 +8621,7 @@
         <v>44342</v>
       </c>
       <c r="B356" t="n">
-        <v>124.4372711181641</v>
+        <v>124.4372787475586</v>
       </c>
       <c r="C356" t="n">
         <v>126.8499984741211</v>
@@ -8644,7 +8644,7 @@
         <v>44343</v>
       </c>
       <c r="B357" t="n">
-        <v>122.8971252441406</v>
+        <v>122.8971328735352</v>
       </c>
       <c r="C357" t="n">
         <v>125.2799987792969</v>
@@ -8713,7 +8713,7 @@
         <v>44349</v>
       </c>
       <c r="B360" t="n">
-        <v>122.6813049316406</v>
+        <v>122.6813125610352</v>
       </c>
       <c r="C360" t="n">
         <v>125.0599975585938</v>
@@ -8736,7 +8736,7 @@
         <v>44350</v>
       </c>
       <c r="B361" t="n">
-        <v>121.1902236938477</v>
+        <v>121.1902313232422</v>
       </c>
       <c r="C361" t="n">
         <v>123.5400009155273</v>
@@ -8759,7 +8759,7 @@
         <v>44351</v>
       </c>
       <c r="B362" t="n">
-        <v>123.4955368041992</v>
+        <v>123.4955291748047</v>
       </c>
       <c r="C362" t="n">
         <v>125.8899993896484</v>
@@ -8782,7 +8782,7 @@
         <v>44354</v>
       </c>
       <c r="B363" t="n">
-        <v>123.5053329467773</v>
+        <v>123.5053405761719</v>
       </c>
       <c r="C363" t="n">
         <v>125.9000015258789</v>
@@ -8805,7 +8805,7 @@
         <v>44355</v>
       </c>
       <c r="B364" t="n">
-        <v>124.3293685913086</v>
+        <v>124.3293762207031</v>
       </c>
       <c r="C364" t="n">
         <v>126.7399978637695</v>
@@ -8828,7 +8828,7 @@
         <v>44356</v>
       </c>
       <c r="B365" t="n">
-        <v>124.7119369506836</v>
+        <v>124.7119293212891</v>
       </c>
       <c r="C365" t="n">
         <v>127.129997253418</v>
@@ -8851,7 +8851,7 @@
         <v>44357</v>
       </c>
       <c r="B366" t="n">
-        <v>123.7113494873047</v>
+        <v>123.7113647460938</v>
       </c>
       <c r="C366" t="n">
         <v>126.1100006103516</v>
@@ -8874,7 +8874,7 @@
         <v>44358</v>
       </c>
       <c r="B367" t="n">
-        <v>124.9277725219727</v>
+        <v>124.9277648925781</v>
       </c>
       <c r="C367" t="n">
         <v>127.3499984741211</v>
@@ -8943,7 +8943,7 @@
         <v>44363</v>
       </c>
       <c r="B370" t="n">
-        <v>127.6745147705078</v>
+        <v>127.6744842529297</v>
       </c>
       <c r="C370" t="n">
         <v>130.1499938964844</v>
@@ -8966,7 +8966,7 @@
         <v>44364</v>
       </c>
       <c r="B371" t="n">
-        <v>129.2832946777344</v>
+        <v>129.2833251953125</v>
       </c>
       <c r="C371" t="n">
         <v>131.7899932861328</v>
@@ -8989,7 +8989,7 @@
         <v>44365</v>
       </c>
       <c r="B372" t="n">
-        <v>127.9785766601562</v>
+        <v>127.9786224365234</v>
       </c>
       <c r="C372" t="n">
         <v>130.4600067138672</v>
@@ -9012,7 +9012,7 @@
         <v>44368</v>
       </c>
       <c r="B373" t="n">
-        <v>129.7836151123047</v>
+        <v>129.7836303710938</v>
       </c>
       <c r="C373" t="n">
         <v>132.3000030517578</v>
@@ -9035,7 +9035,7 @@
         <v>44369</v>
       </c>
       <c r="B374" t="n">
-        <v>131.431640625</v>
+        <v>131.4316558837891</v>
       </c>
       <c r="C374" t="n">
         <v>133.9799957275391</v>
@@ -9058,7 +9058,7 @@
         <v>44370</v>
       </c>
       <c r="B375" t="n">
-        <v>131.156982421875</v>
+        <v>131.1569519042969</v>
       </c>
       <c r="C375" t="n">
         <v>133.6999969482422</v>
@@ -9081,7 +9081,7 @@
         <v>44371</v>
       </c>
       <c r="B376" t="n">
-        <v>130.8725433349609</v>
+        <v>130.8725280761719</v>
       </c>
       <c r="C376" t="n">
         <v>133.4100036621094</v>
@@ -9127,7 +9127,7 @@
         <v>44375</v>
       </c>
       <c r="B378" t="n">
-        <v>132.2164001464844</v>
+        <v>132.2164154052734</v>
       </c>
       <c r="C378" t="n">
         <v>134.7799987792969</v>
@@ -9173,7 +9173,7 @@
         <v>44377</v>
       </c>
       <c r="B380" t="n">
-        <v>134.3549652099609</v>
+        <v>134.35498046875</v>
       </c>
       <c r="C380" t="n">
         <v>136.9600067138672</v>
@@ -9196,7 +9196,7 @@
         <v>44378</v>
       </c>
       <c r="B381" t="n">
-        <v>134.6591186523438</v>
+        <v>134.6590881347656</v>
       </c>
       <c r="C381" t="n">
         <v>137.2700042724609</v>
@@ -9242,7 +9242,7 @@
         <v>44383</v>
       </c>
       <c r="B383" t="n">
-        <v>139.3187255859375</v>
+        <v>139.3187408447266</v>
       </c>
       <c r="C383" t="n">
         <v>142.0200042724609</v>
@@ -9288,7 +9288,7 @@
         <v>44385</v>
       </c>
       <c r="B385" t="n">
-        <v>140.5155487060547</v>
+        <v>140.5155334472656</v>
       </c>
       <c r="C385" t="n">
         <v>143.2400054931641</v>
@@ -9311,7 +9311,7 @@
         <v>44386</v>
       </c>
       <c r="B386" t="n">
-        <v>142.3500061035156</v>
+        <v>142.3499755859375</v>
       </c>
       <c r="C386" t="n">
         <v>145.1100006103516</v>
@@ -9357,7 +9357,7 @@
         <v>44390</v>
       </c>
       <c r="B388" t="n">
-        <v>142.8698883056641</v>
+        <v>142.8698577880859</v>
       </c>
       <c r="C388" t="n">
         <v>145.6399993896484</v>
@@ -9380,7 +9380,7 @@
         <v>44391</v>
       </c>
       <c r="B389" t="n">
-        <v>146.3131103515625</v>
+        <v>146.3131256103516</v>
       </c>
       <c r="C389" t="n">
         <v>149.1499938964844</v>
@@ -9403,7 +9403,7 @@
         <v>44392</v>
       </c>
       <c r="B390" t="n">
-        <v>145.6558532714844</v>
+        <v>145.6558685302734</v>
       </c>
       <c r="C390" t="n">
         <v>148.4799957275391</v>
@@ -9426,7 +9426,7 @@
         <v>44393</v>
       </c>
       <c r="B391" t="n">
-        <v>143.6056213378906</v>
+        <v>143.6056365966797</v>
       </c>
       <c r="C391" t="n">
         <v>146.3899993896484</v>
@@ -9449,7 +9449,7 @@
         <v>44396</v>
       </c>
       <c r="B392" t="n">
-        <v>139.7405242919922</v>
+        <v>139.7405395507812</v>
       </c>
       <c r="C392" t="n">
         <v>142.4499969482422</v>
@@ -9495,7 +9495,7 @@
         <v>44398</v>
       </c>
       <c r="B394" t="n">
-        <v>142.6344451904297</v>
+        <v>142.6344299316406</v>
       </c>
       <c r="C394" t="n">
         <v>145.3999938964844</v>
@@ -9518,7 +9518,7 @@
         <v>44399</v>
       </c>
       <c r="B395" t="n">
-        <v>144.0078125</v>
+        <v>144.0078430175781</v>
       </c>
       <c r="C395" t="n">
         <v>146.8000030517578</v>
@@ -9541,7 +9541,7 @@
         <v>44400</v>
       </c>
       <c r="B396" t="n">
-        <v>145.7342987060547</v>
+        <v>145.7343292236328</v>
       </c>
       <c r="C396" t="n">
         <v>148.5599975585938</v>
@@ -9564,7 +9564,7 @@
         <v>44403</v>
       </c>
       <c r="B397" t="n">
-        <v>146.1561584472656</v>
+        <v>146.1561737060547</v>
       </c>
       <c r="C397" t="n">
         <v>148.9900054931641</v>
@@ -9587,7 +9587,7 @@
         <v>44404</v>
       </c>
       <c r="B398" t="n">
-        <v>143.9784240722656</v>
+        <v>143.9783782958984</v>
       </c>
       <c r="C398" t="n">
         <v>146.7700042724609</v>
@@ -9610,7 +9610,7 @@
         <v>44405</v>
       </c>
       <c r="B399" t="n">
-        <v>142.2224273681641</v>
+        <v>142.2224426269531</v>
       </c>
       <c r="C399" t="n">
         <v>144.9799957275391</v>
@@ -9633,7 +9633,7 @@
         <v>44406</v>
       </c>
       <c r="B400" t="n">
-        <v>142.8698883056641</v>
+        <v>142.8698577880859</v>
       </c>
       <c r="C400" t="n">
         <v>145.6399993896484</v>
@@ -9656,7 +9656,7 @@
         <v>44407</v>
       </c>
       <c r="B401" t="n">
-        <v>143.085693359375</v>
+        <v>143.0856781005859</v>
       </c>
       <c r="C401" t="n">
         <v>145.8600006103516</v>
@@ -9679,7 +9679,7 @@
         <v>44410</v>
       </c>
       <c r="B402" t="n">
-        <v>142.7521820068359</v>
+        <v>142.7521667480469</v>
       </c>
       <c r="C402" t="n">
         <v>145.5200042724609</v>
@@ -9702,7 +9702,7 @@
         <v>44411</v>
       </c>
       <c r="B403" t="n">
-        <v>144.5571746826172</v>
+        <v>144.5571441650391</v>
       </c>
       <c r="C403" t="n">
         <v>147.3600006103516</v>
@@ -9748,7 +9748,7 @@
         <v>44413</v>
       </c>
       <c r="B405" t="n">
-        <v>144.2628936767578</v>
+        <v>144.2628479003906</v>
       </c>
       <c r="C405" t="n">
         <v>147.0599975585938</v>
@@ -9771,7 +9771,7 @@
         <v>44414</v>
       </c>
       <c r="B406" t="n">
-        <v>143.5751647949219</v>
+        <v>143.5751800537109</v>
       </c>
       <c r="C406" t="n">
         <v>146.1399993896484</v>
@@ -9817,7 +9817,7 @@
         <v>44418</v>
       </c>
       <c r="B408" t="n">
-        <v>143.0446166992188</v>
+        <v>143.0446472167969</v>
       </c>
       <c r="C408" t="n">
         <v>145.6000061035156</v>
@@ -9840,7 +9840,7 @@
         <v>44419</v>
       </c>
       <c r="B409" t="n">
-        <v>143.3000793457031</v>
+        <v>143.3000640869141</v>
       </c>
       <c r="C409" t="n">
         <v>145.8600006103516</v>
@@ -9863,7 +9863,7 @@
         <v>44420</v>
       </c>
       <c r="B410" t="n">
-        <v>146.2769012451172</v>
+        <v>146.2768859863281</v>
       </c>
       <c r="C410" t="n">
         <v>148.8899993896484</v>
@@ -9886,7 +9886,7 @@
         <v>44421</v>
       </c>
       <c r="B411" t="n">
-        <v>146.4832305908203</v>
+        <v>146.4832153320312</v>
       </c>
       <c r="C411" t="n">
         <v>149.1000061035156</v>
@@ -9932,7 +9932,7 @@
         <v>44425</v>
       </c>
       <c r="B413" t="n">
-        <v>147.5540618896484</v>
+        <v>147.5540466308594</v>
       </c>
       <c r="C413" t="n">
         <v>150.1900024414062</v>
@@ -9955,7 +9955,7 @@
         <v>44426</v>
       </c>
       <c r="B414" t="n">
-        <v>143.7913055419922</v>
+        <v>143.791259765625</v>
       </c>
       <c r="C414" t="n">
         <v>146.3600006103516</v>
@@ -10001,7 +10001,7 @@
         <v>44428</v>
       </c>
       <c r="B416" t="n">
-        <v>145.5891876220703</v>
+        <v>145.5891723632812</v>
       </c>
       <c r="C416" t="n">
         <v>148.1900024414062</v>
@@ -10047,7 +10047,7 @@
         <v>44432</v>
       </c>
       <c r="B418" t="n">
-        <v>146.9940795898438</v>
+        <v>146.9940643310547</v>
       </c>
       <c r="C418" t="n">
         <v>149.6199951171875</v>
@@ -10070,7 +10070,7 @@
         <v>44433</v>
       </c>
       <c r="B419" t="n">
-        <v>145.7561950683594</v>
+        <v>145.7561798095703</v>
       </c>
       <c r="C419" t="n">
         <v>148.3600006103516</v>
@@ -10093,7 +10093,7 @@
         <v>44434</v>
       </c>
       <c r="B420" t="n">
-        <v>144.9505920410156</v>
+        <v>144.9505767822266</v>
       </c>
       <c r="C420" t="n">
         <v>147.5399932861328</v>
@@ -10116,7 +10116,7 @@
         <v>44435</v>
       </c>
       <c r="B421" t="n">
-        <v>145.9919891357422</v>
+        <v>145.9920196533203</v>
       </c>
       <c r="C421" t="n">
         <v>148.6000061035156</v>
@@ -10139,7 +10139,7 @@
         <v>44438</v>
       </c>
       <c r="B422" t="n">
-        <v>150.4326171875</v>
+        <v>150.4326477050781</v>
       </c>
       <c r="C422" t="n">
         <v>153.1199951171875</v>
@@ -10162,7 +10162,7 @@
         <v>44439</v>
       </c>
       <c r="B423" t="n">
-        <v>149.1652679443359</v>
+        <v>149.165283203125</v>
       </c>
       <c r="C423" t="n">
         <v>151.8300018310547</v>
@@ -10185,7 +10185,7 @@
         <v>44440</v>
       </c>
       <c r="B424" t="n">
-        <v>149.8333435058594</v>
+        <v>149.8333282470703</v>
       </c>
       <c r="C424" t="n">
         <v>152.5099945068359</v>
@@ -10208,7 +10208,7 @@
         <v>44441</v>
       </c>
       <c r="B425" t="n">
-        <v>150.9533081054688</v>
+        <v>150.9533386230469</v>
       </c>
       <c r="C425" t="n">
         <v>153.6499938964844</v>
@@ -10231,7 +10231,7 @@
         <v>44442</v>
       </c>
       <c r="B426" t="n">
-        <v>151.5919494628906</v>
+        <v>151.5919647216797</v>
       </c>
       <c r="C426" t="n">
         <v>154.3000030517578</v>
@@ -10254,7 +10254,7 @@
         <v>44446</v>
       </c>
       <c r="B427" t="n">
-        <v>153.9400024414062</v>
+        <v>153.9399719238281</v>
       </c>
       <c r="C427" t="n">
         <v>156.6900024414062</v>
@@ -10277,7 +10277,7 @@
         <v>44447</v>
       </c>
       <c r="B428" t="n">
-        <v>152.3877410888672</v>
+        <v>152.3877105712891</v>
       </c>
       <c r="C428" t="n">
         <v>155.1100006103516</v>
@@ -10300,7 +10300,7 @@
         <v>44448</v>
       </c>
       <c r="B429" t="n">
-        <v>151.3659820556641</v>
+        <v>151.365966796875</v>
       </c>
       <c r="C429" t="n">
         <v>154.0700073242188</v>
@@ -10323,7 +10323,7 @@
         <v>44449</v>
       </c>
       <c r="B430" t="n">
-        <v>146.35546875</v>
+        <v>146.3554840087891</v>
       </c>
       <c r="C430" t="n">
         <v>148.9700012207031</v>
@@ -10346,7 +10346,7 @@
         <v>44452</v>
       </c>
       <c r="B431" t="n">
-        <v>146.9253082275391</v>
+        <v>146.9253234863281</v>
       </c>
       <c r="C431" t="n">
         <v>149.5500030517578</v>
@@ -10369,7 +10369,7 @@
         <v>44453</v>
       </c>
       <c r="B432" t="n">
-        <v>145.5204315185547</v>
+        <v>145.5204010009766</v>
       </c>
       <c r="C432" t="n">
         <v>148.1199951171875</v>
@@ -10392,7 +10392,7 @@
         <v>44454</v>
       </c>
       <c r="B433" t="n">
-        <v>146.4144439697266</v>
+        <v>146.4144287109375</v>
       </c>
       <c r="C433" t="n">
         <v>149.0299987792969</v>
@@ -10415,7 +10415,7 @@
         <v>44455</v>
       </c>
       <c r="B434" t="n">
-        <v>146.1786346435547</v>
+        <v>146.1786193847656</v>
       </c>
       <c r="C434" t="n">
         <v>148.7899932861328</v>
@@ -10438,7 +10438,7 @@
         <v>44456</v>
       </c>
       <c r="B435" t="n">
-        <v>143.4965667724609</v>
+        <v>143.4965515136719</v>
       </c>
       <c r="C435" t="n">
         <v>146.0599975585938</v>
@@ -10461,7 +10461,7 @@
         <v>44459</v>
       </c>
       <c r="B436" t="n">
-        <v>140.4313507080078</v>
+        <v>140.4313201904297</v>
       </c>
       <c r="C436" t="n">
         <v>142.9400024414062</v>
@@ -10484,7 +10484,7 @@
         <v>44460</v>
       </c>
       <c r="B437" t="n">
-        <v>140.9127044677734</v>
+        <v>140.9126892089844</v>
       </c>
       <c r="C437" t="n">
         <v>143.4299926757812</v>
@@ -10507,7 +10507,7 @@
         <v>44461</v>
       </c>
       <c r="B438" t="n">
-        <v>143.2902679443359</v>
+        <v>143.2902526855469</v>
       </c>
       <c r="C438" t="n">
         <v>145.8500061035156</v>
@@ -10553,7 +10553,7 @@
         <v>44463</v>
       </c>
       <c r="B440" t="n">
-        <v>144.3414916992188</v>
+        <v>144.3414764404297</v>
       </c>
       <c r="C440" t="n">
         <v>146.9199981689453</v>
@@ -10576,7 +10576,7 @@
         <v>44466</v>
       </c>
       <c r="B441" t="n">
-        <v>142.8186645507812</v>
+        <v>142.8186492919922</v>
       </c>
       <c r="C441" t="n">
         <v>145.3699951171875</v>
@@ -10599,7 +10599,7 @@
         <v>44467</v>
       </c>
       <c r="B442" t="n">
-        <v>139.4194030761719</v>
+        <v>139.4194183349609</v>
       </c>
       <c r="C442" t="n">
         <v>141.9100036621094</v>
@@ -10622,7 +10622,7 @@
         <v>44468</v>
       </c>
       <c r="B443" t="n">
-        <v>140.3232421875</v>
+        <v>140.3232574462891</v>
       </c>
       <c r="C443" t="n">
         <v>142.8300018310547</v>
@@ -10645,7 +10645,7 @@
         <v>44469</v>
       </c>
       <c r="B444" t="n">
-        <v>139.0166168212891</v>
+        <v>139.0165863037109</v>
       </c>
       <c r="C444" t="n">
         <v>141.5</v>
@@ -10691,7 +10691,7 @@
         <v>44473</v>
       </c>
       <c r="B446" t="n">
-        <v>136.6980133056641</v>
+        <v>136.6979675292969</v>
       </c>
       <c r="C446" t="n">
         <v>139.1399993896484</v>
@@ -10760,7 +10760,7 @@
         <v>44476</v>
       </c>
       <c r="B449" t="n">
-        <v>140.7751770019531</v>
+        <v>140.7751922607422</v>
       </c>
       <c r="C449" t="n">
         <v>143.2899932861328</v>
@@ -10783,7 +10783,7 @@
         <v>44477</v>
       </c>
       <c r="B450" t="n">
-        <v>140.3920135498047</v>
+        <v>140.3920288085938</v>
       </c>
       <c r="C450" t="n">
         <v>142.8999938964844</v>
@@ -10875,7 +10875,7 @@
         <v>44483</v>
       </c>
       <c r="B454" t="n">
-        <v>141.2369232177734</v>
+        <v>141.2368927001953</v>
       </c>
       <c r="C454" t="n">
         <v>143.7599945068359</v>
@@ -10898,7 +10898,7 @@
         <v>44484</v>
       </c>
       <c r="B455" t="n">
-        <v>142.2979431152344</v>
+        <v>142.2979736328125</v>
       </c>
       <c r="C455" t="n">
         <v>144.8399963378906</v>
@@ -10921,7 +10921,7 @@
         <v>44487</v>
       </c>
       <c r="B456" t="n">
-        <v>143.9779663085938</v>
+        <v>143.9779815673828</v>
       </c>
       <c r="C456" t="n">
         <v>146.5500030517578</v>
@@ -10944,7 +10944,7 @@
         <v>44488</v>
       </c>
       <c r="B457" t="n">
-        <v>146.1491546630859</v>
+        <v>146.1491851806641</v>
       </c>
       <c r="C457" t="n">
         <v>148.7599945068359</v>
@@ -10990,7 +10990,7 @@
         <v>44490</v>
       </c>
       <c r="B459" t="n">
-        <v>146.8565521240234</v>
+        <v>146.8565216064453</v>
       </c>
       <c r="C459" t="n">
         <v>149.4799957275391</v>
@@ -11013,7 +11013,7 @@
         <v>44491</v>
       </c>
       <c r="B460" t="n">
-        <v>146.0804290771484</v>
+        <v>146.0803833007812</v>
       </c>
       <c r="C460" t="n">
         <v>148.6900024414062</v>
@@ -11059,7 +11059,7 @@
         <v>44495</v>
       </c>
       <c r="B462" t="n">
-        <v>146.6993560791016</v>
+        <v>146.6993408203125</v>
       </c>
       <c r="C462" t="n">
         <v>149.3200073242188</v>
@@ -11082,7 +11082,7 @@
         <v>44496</v>
       </c>
       <c r="B463" t="n">
-        <v>146.2375946044922</v>
+        <v>146.2375793457031</v>
       </c>
       <c r="C463" t="n">
         <v>148.8500061035156</v>
@@ -11151,7 +11151,7 @@
         <v>44501</v>
       </c>
       <c r="B466" t="n">
-        <v>146.3456726074219</v>
+        <v>146.3456420898438</v>
       </c>
       <c r="C466" t="n">
         <v>148.9600067138672</v>
@@ -11174,7 +11174,7 @@
         <v>44502</v>
       </c>
       <c r="B467" t="n">
-        <v>147.3870544433594</v>
+        <v>147.3870849609375</v>
       </c>
       <c r="C467" t="n">
         <v>150.0200042724609</v>
@@ -11197,7 +11197,7 @@
         <v>44503</v>
       </c>
       <c r="B468" t="n">
-        <v>148.8312530517578</v>
+        <v>148.8312683105469</v>
       </c>
       <c r="C468" t="n">
         <v>151.4900054931641</v>
@@ -11220,7 +11220,7 @@
         <v>44504</v>
       </c>
       <c r="B469" t="n">
-        <v>148.3105773925781</v>
+        <v>148.3105926513672</v>
       </c>
       <c r="C469" t="n">
         <v>150.9600067138672</v>
@@ -11289,7 +11289,7 @@
         <v>44509</v>
       </c>
       <c r="B472" t="n">
-        <v>148.3794250488281</v>
+        <v>148.3794403076172</v>
       </c>
       <c r="C472" t="n">
         <v>150.8099975585938</v>
@@ -11312,7 +11312,7 @@
         <v>44510</v>
       </c>
       <c r="B473" t="n">
-        <v>145.5359802246094</v>
+        <v>145.5360260009766</v>
       </c>
       <c r="C473" t="n">
         <v>147.9199981689453</v>
@@ -11335,7 +11335,7 @@
         <v>44511</v>
       </c>
       <c r="B474" t="n">
-        <v>145.4868316650391</v>
+        <v>145.4868011474609</v>
       </c>
       <c r="C474" t="n">
         <v>147.8699951171875</v>
@@ -11358,7 +11358,7 @@
         <v>44512</v>
       </c>
       <c r="B475" t="n">
-        <v>147.5726470947266</v>
+        <v>147.5726318359375</v>
       </c>
       <c r="C475" t="n">
         <v>149.9900054931641</v>
@@ -11381,7 +11381,7 @@
         <v>44515</v>
       </c>
       <c r="B476" t="n">
-        <v>147.5824890136719</v>
+        <v>147.5824737548828</v>
       </c>
       <c r="C476" t="n">
         <v>150</v>
@@ -11496,7 +11496,7 @@
         <v>44522</v>
       </c>
       <c r="B481" t="n">
-        <v>158.4249267578125</v>
+        <v>158.4248962402344</v>
       </c>
       <c r="C481" t="n">
         <v>161.0200042724609</v>
@@ -11519,7 +11519,7 @@
         <v>44523</v>
       </c>
       <c r="B482" t="n">
-        <v>158.80859375</v>
+        <v>158.8086242675781</v>
       </c>
       <c r="C482" t="n">
         <v>161.4100036621094</v>
@@ -11565,7 +11565,7 @@
         <v>44526</v>
       </c>
       <c r="B484" t="n">
-        <v>154.2827301025391</v>
+        <v>154.2827453613281</v>
       </c>
       <c r="C484" t="n">
         <v>156.8099975585938</v>
@@ -11588,7 +11588,7 @@
         <v>44529</v>
       </c>
       <c r="B485" t="n">
-        <v>157.6574401855469</v>
+        <v>157.657470703125</v>
       </c>
       <c r="C485" t="n">
         <v>160.2400054931641</v>
@@ -11611,7 +11611,7 @@
         <v>44530</v>
       </c>
       <c r="B486" t="n">
-        <v>162.6359100341797</v>
+        <v>162.6358795166016</v>
       </c>
       <c r="C486" t="n">
         <v>165.3000030517578</v>
@@ -11634,7 +11634,7 @@
         <v>44531</v>
       </c>
       <c r="B487" t="n">
-        <v>162.1144104003906</v>
+        <v>162.1144561767578</v>
       </c>
       <c r="C487" t="n">
         <v>164.7700042724609</v>
@@ -11657,7 +11657,7 @@
         <v>44532</v>
       </c>
       <c r="B488" t="n">
-        <v>161.1207275390625</v>
+        <v>161.1207122802734</v>
       </c>
       <c r="C488" t="n">
         <v>163.7599945068359</v>
@@ -11680,7 +11680,7 @@
         <v>44533</v>
       </c>
       <c r="B489" t="n">
-        <v>159.2316741943359</v>
+        <v>159.2316284179688</v>
       </c>
       <c r="C489" t="n">
         <v>161.8399963378906</v>
@@ -11703,7 +11703,7 @@
         <v>44536</v>
       </c>
       <c r="B490" t="n">
-        <v>162.6555938720703</v>
+        <v>162.6556091308594</v>
       </c>
       <c r="C490" t="n">
         <v>165.3200073242188</v>
@@ -11726,7 +11726,7 @@
         <v>44537</v>
       </c>
       <c r="B491" t="n">
-        <v>168.4211273193359</v>
+        <v>168.4211120605469</v>
       </c>
       <c r="C491" t="n">
         <v>171.1799926757812</v>
@@ -11795,7 +11795,7 @@
         <v>44540</v>
       </c>
       <c r="B494" t="n">
-        <v>176.5578460693359</v>
+        <v>176.5578155517578</v>
       </c>
       <c r="C494" t="n">
         <v>179.4499969482422</v>
@@ -11818,7 +11818,7 @@
         <v>44543</v>
       </c>
       <c r="B495" t="n">
-        <v>172.9076690673828</v>
+        <v>172.9076385498047</v>
       </c>
       <c r="C495" t="n">
         <v>175.7400054931641</v>
@@ -11841,7 +11841,7 @@
         <v>44544</v>
       </c>
       <c r="B496" t="n">
-        <v>171.5203399658203</v>
+        <v>171.5203704833984</v>
       </c>
       <c r="C496" t="n">
         <v>174.3300018310547</v>
@@ -11864,7 +11864,7 @@
         <v>44545</v>
       </c>
       <c r="B497" t="n">
-        <v>176.4102935791016</v>
+        <v>176.4102783203125</v>
       </c>
       <c r="C497" t="n">
         <v>179.3000030517578</v>
@@ -11887,7 +11887,7 @@
         <v>44546</v>
       </c>
       <c r="B498" t="n">
-        <v>169.4837341308594</v>
+        <v>169.4837493896484</v>
       </c>
       <c r="C498" t="n">
         <v>172.2599945068359</v>
@@ -11910,7 +11910,7 @@
         <v>44547</v>
       </c>
       <c r="B499" t="n">
-        <v>168.3817901611328</v>
+        <v>168.3818054199219</v>
       </c>
       <c r="C499" t="n">
         <v>171.1399993896484</v>
@@ -11933,7 +11933,7 @@
         <v>44550</v>
       </c>
       <c r="B500" t="n">
-        <v>167.0141754150391</v>
+        <v>167.0141906738281</v>
       </c>
       <c r="C500" t="n">
         <v>169.75</v>
@@ -11956,7 +11956,7 @@
         <v>44551</v>
       </c>
       <c r="B501" t="n">
-        <v>170.2019500732422</v>
+        <v>170.2019653320312</v>
       </c>
       <c r="C501" t="n">
         <v>172.9900054931641</v>
@@ -12025,7 +12025,7 @@
         <v>44557</v>
       </c>
       <c r="B504" t="n">
-        <v>177.4236755371094</v>
+        <v>177.4236450195312</v>
       </c>
       <c r="C504" t="n">
         <v>180.3300018310547</v>
@@ -12094,7 +12094,7 @@
         <v>44560</v>
       </c>
       <c r="B507" t="n">
-        <v>175.3279876708984</v>
+        <v>175.3279571533203</v>
       </c>
       <c r="C507" t="n">
         <v>178.1999969482422</v>
@@ -12117,7 +12117,7 @@
         <v>44561</v>
       </c>
       <c r="B508" t="n">
-        <v>174.7081451416016</v>
+        <v>174.7081756591797</v>
       </c>
       <c r="C508" t="n">
         <v>177.5700073242188</v>
@@ -12140,7 +12140,7 @@
         <v>44564</v>
       </c>
       <c r="B509" t="n">
-        <v>179.0765838623047</v>
+        <v>179.0765991210938</v>
       </c>
       <c r="C509" t="n">
         <v>182.0099945068359</v>
@@ -12163,7 +12163,7 @@
         <v>44565</v>
       </c>
       <c r="B510" t="n">
-        <v>176.8038482666016</v>
+        <v>176.8038024902344</v>
       </c>
       <c r="C510" t="n">
         <v>179.6999969482422</v>
@@ -12186,7 +12186,7 @@
         <v>44566</v>
       </c>
       <c r="B511" t="n">
-        <v>172.1008453369141</v>
+        <v>172.100830078125</v>
       </c>
       <c r="C511" t="n">
         <v>174.9199981689453</v>
@@ -12301,7 +12301,7 @@
         <v>44573</v>
       </c>
       <c r="B516" t="n">
-        <v>172.7010498046875</v>
+        <v>172.7010345458984</v>
       </c>
       <c r="C516" t="n">
         <v>175.5299987792969</v>
@@ -12347,7 +12347,7 @@
         <v>44575</v>
       </c>
       <c r="B518" t="n">
-        <v>170.2807006835938</v>
+        <v>170.2806854248047</v>
       </c>
       <c r="C518" t="n">
         <v>173.0700073242188</v>
@@ -12370,7 +12370,7 @@
         <v>44579</v>
       </c>
       <c r="B519" t="n">
-        <v>167.0633850097656</v>
+        <v>167.0633697509766</v>
       </c>
       <c r="C519" t="n">
         <v>169.8000030517578</v>
@@ -12393,7 +12393,7 @@
         <v>44580</v>
       </c>
       <c r="B520" t="n">
-        <v>163.5509033203125</v>
+        <v>163.5508880615234</v>
       </c>
       <c r="C520" t="n">
         <v>166.2299957275391</v>
@@ -12416,7 +12416,7 @@
         <v>44581</v>
       </c>
       <c r="B521" t="n">
-        <v>161.8586578369141</v>
+        <v>161.8586120605469</v>
       </c>
       <c r="C521" t="n">
         <v>164.5099945068359</v>
@@ -12439,7 +12439,7 @@
         <v>44582</v>
       </c>
       <c r="B522" t="n">
-        <v>159.79248046875</v>
+        <v>159.7924957275391</v>
       </c>
       <c r="C522" t="n">
         <v>162.4100036621094</v>
@@ -12485,7 +12485,7 @@
         <v>44586</v>
       </c>
       <c r="B524" t="n">
-        <v>157.2048645019531</v>
+        <v>157.2048797607422</v>
       </c>
       <c r="C524" t="n">
         <v>159.7799987792969</v>
@@ -12554,7 +12554,7 @@
         <v>44589</v>
       </c>
       <c r="B527" t="n">
-        <v>167.5848083496094</v>
+        <v>167.5848236083984</v>
       </c>
       <c r="C527" t="n">
         <v>170.3300018310547</v>
@@ -12577,7 +12577,7 @@
         <v>44592</v>
       </c>
       <c r="B528" t="n">
-        <v>171.9630889892578</v>
+        <v>171.963134765625</v>
       </c>
       <c r="C528" t="n">
         <v>174.7799987792969</v>
@@ -12646,7 +12646,7 @@
         <v>44595</v>
       </c>
       <c r="B531" t="n">
-        <v>170.1134185791016</v>
+        <v>170.1134033203125</v>
       </c>
       <c r="C531" t="n">
         <v>172.8999938964844</v>
@@ -12669,7 +12669,7 @@
         <v>44596</v>
       </c>
       <c r="B532" t="n">
-        <v>169.8277130126953</v>
+        <v>169.8277435302734</v>
       </c>
       <c r="C532" t="n">
         <v>172.3899993896484</v>
@@ -12692,7 +12692,7 @@
         <v>44599</v>
       </c>
       <c r="B533" t="n">
-        <v>169.1085968017578</v>
+        <v>169.1085815429688</v>
       </c>
       <c r="C533" t="n">
         <v>171.6600036621094</v>
@@ -12715,7 +12715,7 @@
         <v>44600</v>
       </c>
       <c r="B534" t="n">
-        <v>172.2314910888672</v>
+        <v>172.2314758300781</v>
       </c>
       <c r="C534" t="n">
         <v>174.8300018310547</v>
@@ -12738,7 +12738,7 @@
         <v>44601</v>
       </c>
       <c r="B535" t="n">
-        <v>173.6599273681641</v>
+        <v>173.6598968505859</v>
       </c>
       <c r="C535" t="n">
         <v>176.2799987792969</v>
@@ -12761,7 +12761,7 @@
         <v>44602</v>
       </c>
       <c r="B536" t="n">
-        <v>169.5617523193359</v>
+        <v>169.5617828369141</v>
       </c>
       <c r="C536" t="n">
         <v>172.1199951171875</v>
@@ -12899,7 +12899,7 @@
         <v>44610</v>
       </c>
       <c r="B542" t="n">
-        <v>164.8133697509766</v>
+        <v>164.8133850097656</v>
       </c>
       <c r="C542" t="n">
         <v>167.3000030517578</v>
@@ -12922,7 +12922,7 @@
         <v>44614</v>
       </c>
       <c r="B543" t="n">
-        <v>161.8776702880859</v>
+        <v>161.8777008056641</v>
       </c>
       <c r="C543" t="n">
         <v>164.3200073242188</v>
@@ -12945,7 +12945,7 @@
         <v>44615</v>
       </c>
       <c r="B544" t="n">
-        <v>157.6908721923828</v>
+        <v>157.6908569335938</v>
       </c>
       <c r="C544" t="n">
         <v>160.0700073242188</v>
@@ -13014,7 +13014,7 @@
         <v>44620</v>
       </c>
       <c r="B547" t="n">
-        <v>162.6657562255859</v>
+        <v>162.6657867431641</v>
       </c>
       <c r="C547" t="n">
         <v>165.1199951171875</v>
@@ -13037,7 +13037,7 @@
         <v>44621</v>
       </c>
       <c r="B548" t="n">
-        <v>160.7743225097656</v>
+        <v>160.7743377685547</v>
       </c>
       <c r="C548" t="n">
         <v>163.1999969482422</v>
@@ -13060,7 +13060,7 @@
         <v>44622</v>
       </c>
       <c r="B549" t="n">
-        <v>164.0843811035156</v>
+        <v>164.0844116210938</v>
       </c>
       <c r="C549" t="n">
         <v>166.5599975585938</v>
@@ -13083,7 +13083,7 @@
         <v>44623</v>
       </c>
       <c r="B550" t="n">
-        <v>163.7592620849609</v>
+        <v>163.75927734375</v>
       </c>
       <c r="C550" t="n">
         <v>166.2299957275391</v>
@@ -13129,7 +13129,7 @@
         <v>44627</v>
       </c>
       <c r="B552" t="n">
-        <v>156.9322662353516</v>
+        <v>156.9322967529297</v>
       </c>
       <c r="C552" t="n">
         <v>159.3000030517578</v>
@@ -13152,7 +13152,7 @@
         <v>44628</v>
       </c>
       <c r="B553" t="n">
-        <v>155.0999298095703</v>
+        <v>155.0999450683594</v>
       </c>
       <c r="C553" t="n">
         <v>157.4400024414062</v>
@@ -13175,7 +13175,7 @@
         <v>44629</v>
       </c>
       <c r="B554" t="n">
-        <v>160.5280151367188</v>
+        <v>160.5280303955078</v>
       </c>
       <c r="C554" t="n">
         <v>162.9499969482422</v>
@@ -13198,7 +13198,7 @@
         <v>44630</v>
       </c>
       <c r="B555" t="n">
-        <v>156.1638793945312</v>
+        <v>156.1639251708984</v>
       </c>
       <c r="C555" t="n">
         <v>158.5200042724609</v>
@@ -13221,7 +13221,7 @@
         <v>44631</v>
       </c>
       <c r="B556" t="n">
-        <v>152.4302368164062</v>
+        <v>152.4302062988281</v>
       </c>
       <c r="C556" t="n">
         <v>154.7299957275391</v>
@@ -13244,7 +13244,7 @@
         <v>44634</v>
       </c>
       <c r="B557" t="n">
-        <v>148.3813323974609</v>
+        <v>148.3812713623047</v>
       </c>
       <c r="C557" t="n">
         <v>150.6199951171875</v>
@@ -13290,7 +13290,7 @@
         <v>44636</v>
       </c>
       <c r="B559" t="n">
-        <v>157.2179870605469</v>
+        <v>157.2179718017578</v>
       </c>
       <c r="C559" t="n">
         <v>159.5899963378906</v>
@@ -13313,7 +13313,7 @@
         <v>44637</v>
       </c>
       <c r="B560" t="n">
-        <v>158.232666015625</v>
+        <v>158.2326812744141</v>
       </c>
       <c r="C560" t="n">
         <v>160.6199951171875</v>
@@ -13336,7 +13336,7 @@
         <v>44638</v>
       </c>
       <c r="B561" t="n">
-        <v>161.5427551269531</v>
+        <v>161.5427093505859</v>
       </c>
       <c r="C561" t="n">
         <v>163.9799957275391</v>
@@ -13359,7 +13359,7 @@
         <v>44641</v>
       </c>
       <c r="B562" t="n">
-        <v>162.9219360351562</v>
+        <v>162.9219207763672</v>
       </c>
       <c r="C562" t="n">
         <v>165.3800048828125</v>
@@ -13382,7 +13382,7 @@
         <v>44642</v>
       </c>
       <c r="B563" t="n">
-        <v>166.3107757568359</v>
+        <v>166.3108062744141</v>
       </c>
       <c r="C563" t="n">
         <v>168.8200073242188</v>
@@ -13405,7 +13405,7 @@
         <v>44643</v>
       </c>
       <c r="B564" t="n">
-        <v>167.6801300048828</v>
+        <v>167.6801605224609</v>
       </c>
       <c r="C564" t="n">
         <v>170.2100067138672</v>
@@ -13428,7 +13428,7 @@
         <v>44644</v>
       </c>
       <c r="B565" t="n">
-        <v>171.4827728271484</v>
+        <v>171.4827575683594</v>
       </c>
       <c r="C565" t="n">
         <v>174.0700073242188</v>
@@ -13474,7 +13474,7 @@
         <v>44648</v>
       </c>
       <c r="B567" t="n">
-        <v>172.9900054931641</v>
+        <v>172.9900512695312</v>
       </c>
       <c r="C567" t="n">
         <v>175.6000061035156</v>
@@ -13520,7 +13520,7 @@
         <v>44650</v>
       </c>
       <c r="B569" t="n">
-        <v>175.1277770996094</v>
+        <v>175.1277465820312</v>
       </c>
       <c r="C569" t="n">
         <v>177.7700042724609</v>
@@ -13543,7 +13543,7 @@
         <v>44651</v>
       </c>
       <c r="B570" t="n">
-        <v>172.0147399902344</v>
+        <v>172.0147552490234</v>
       </c>
       <c r="C570" t="n">
         <v>174.6100006103516</v>
@@ -13566,7 +13566,7 @@
         <v>44652</v>
       </c>
       <c r="B571" t="n">
-        <v>171.7191925048828</v>
+        <v>171.7191772460938</v>
       </c>
       <c r="C571" t="n">
         <v>174.3099975585938</v>
@@ -13589,7 +13589,7 @@
         <v>44655</v>
       </c>
       <c r="B572" t="n">
-        <v>175.7877960205078</v>
+        <v>175.7878265380859</v>
       </c>
       <c r="C572" t="n">
         <v>178.4400024414062</v>
@@ -13635,7 +13635,7 @@
         <v>44657</v>
       </c>
       <c r="B574" t="n">
-        <v>169.2760772705078</v>
+        <v>169.2760925292969</v>
       </c>
       <c r="C574" t="n">
         <v>171.8300018310547</v>
@@ -13681,7 +13681,7 @@
         <v>44659</v>
       </c>
       <c r="B576" t="n">
-        <v>167.5619049072266</v>
+        <v>167.5619354248047</v>
       </c>
       <c r="C576" t="n">
         <v>170.0899963378906</v>
@@ -13704,7 +13704,7 @@
         <v>44662</v>
       </c>
       <c r="B577" t="n">
-        <v>163.2864532470703</v>
+        <v>163.2864227294922</v>
       </c>
       <c r="C577" t="n">
         <v>165.75</v>
@@ -13773,7 +13773,7 @@
         <v>44665</v>
       </c>
       <c r="B580" t="n">
-        <v>162.8332366943359</v>
+        <v>162.8332672119141</v>
       </c>
       <c r="C580" t="n">
         <v>165.2899932861328</v>
@@ -13796,7 +13796,7 @@
         <v>44669</v>
       </c>
       <c r="B581" t="n">
-        <v>162.6165313720703</v>
+        <v>162.6165466308594</v>
       </c>
       <c r="C581" t="n">
         <v>165.0700073242188</v>
@@ -13842,7 +13842,7 @@
         <v>44671</v>
       </c>
       <c r="B583" t="n">
-        <v>164.7444000244141</v>
+        <v>164.7444305419922</v>
       </c>
       <c r="C583" t="n">
         <v>167.2299957275391</v>
@@ -13934,7 +13934,7 @@
         <v>44677</v>
       </c>
       <c r="B587" t="n">
-        <v>154.4694519042969</v>
+        <v>154.4694366455078</v>
       </c>
       <c r="C587" t="n">
         <v>156.8000030517578</v>
@@ -13957,7 +13957,7 @@
         <v>44678</v>
       </c>
       <c r="B588" t="n">
-        <v>154.2428894042969</v>
+        <v>154.2428741455078</v>
       </c>
       <c r="C588" t="n">
         <v>156.5700073242188</v>
@@ -14003,7 +14003,7 @@
         <v>44680</v>
       </c>
       <c r="B590" t="n">
-        <v>155.3067932128906</v>
+        <v>155.3068237304688</v>
       </c>
       <c r="C590" t="n">
         <v>157.6499938964844</v>
@@ -14026,7 +14026,7 @@
         <v>44683</v>
       </c>
       <c r="B591" t="n">
-        <v>155.6122283935547</v>
+        <v>155.6121978759766</v>
       </c>
       <c r="C591" t="n">
         <v>157.9600067138672</v>
@@ -14049,7 +14049,7 @@
         <v>44684</v>
       </c>
       <c r="B592" t="n">
-        <v>157.109619140625</v>
+        <v>157.1096038818359</v>
       </c>
       <c r="C592" t="n">
         <v>159.4799957275391</v>
@@ -14072,7 +14072,7 @@
         <v>44685</v>
       </c>
       <c r="B593" t="n">
-        <v>163.5524291992188</v>
+        <v>163.5523986816406</v>
       </c>
       <c r="C593" t="n">
         <v>166.0200042724609</v>
@@ -14095,7 +14095,7 @@
         <v>44686</v>
       </c>
       <c r="B594" t="n">
-        <v>154.4398803710938</v>
+        <v>154.4398956298828</v>
       </c>
       <c r="C594" t="n">
         <v>156.7700042724609</v>
@@ -14118,7 +14118,7 @@
         <v>44687</v>
       </c>
       <c r="B595" t="n">
-        <v>155.1699676513672</v>
+        <v>155.1699523925781</v>
       </c>
       <c r="C595" t="n">
         <v>157.2799987792969</v>
@@ -14141,7 +14141,7 @@
         <v>44690</v>
       </c>
       <c r="B596" t="n">
-        <v>150.02001953125</v>
+        <v>150.0199890136719</v>
       </c>
       <c r="C596" t="n">
         <v>152.0599975585938</v>
@@ -14164,7 +14164,7 @@
         <v>44691</v>
       </c>
       <c r="B597" t="n">
-        <v>152.4371185302734</v>
+        <v>152.4371490478516</v>
       </c>
       <c r="C597" t="n">
         <v>154.5099945068359</v>
@@ -14187,7 +14187,7 @@
         <v>44692</v>
       </c>
       <c r="B598" t="n">
-        <v>144.5345764160156</v>
+        <v>144.5345916748047</v>
       </c>
       <c r="C598" t="n">
         <v>146.5</v>
@@ -14210,7 +14210,7 @@
         <v>44693</v>
       </c>
       <c r="B599" t="n">
-        <v>140.6474456787109</v>
+        <v>140.6474304199219</v>
       </c>
       <c r="C599" t="n">
         <v>142.5599975585938</v>
@@ -14233,7 +14233,7 @@
         <v>44694</v>
       </c>
       <c r="B600" t="n">
-        <v>145.1363983154297</v>
+        <v>145.1364288330078</v>
       </c>
       <c r="C600" t="n">
         <v>147.1100006103516</v>
@@ -14279,7 +14279,7 @@
         <v>44698</v>
       </c>
       <c r="B602" t="n">
-        <v>147.2378540039062</v>
+        <v>147.2378387451172</v>
       </c>
       <c r="C602" t="n">
         <v>149.2400054931641</v>
@@ -14325,7 +14325,7 @@
         <v>44700</v>
       </c>
       <c r="B604" t="n">
-        <v>135.5073699951172</v>
+        <v>135.5073547363281</v>
       </c>
       <c r="C604" t="n">
         <v>137.3500061035156</v>
@@ -14348,7 +14348,7 @@
         <v>44701</v>
       </c>
       <c r="B605" t="n">
-        <v>135.7441558837891</v>
+        <v>135.7441101074219</v>
       </c>
       <c r="C605" t="n">
         <v>137.5899963378906</v>
@@ -14371,7 +14371,7 @@
         <v>44704</v>
       </c>
       <c r="B606" t="n">
-        <v>141.1900634765625</v>
+        <v>141.1900787353516</v>
       </c>
       <c r="C606" t="n">
         <v>143.1100006103516</v>
@@ -14394,7 +14394,7 @@
         <v>44705</v>
       </c>
       <c r="B607" t="n">
-        <v>138.4769744873047</v>
+        <v>138.4769592285156</v>
       </c>
       <c r="C607" t="n">
         <v>140.3600006103516</v>
@@ -14417,7 +14417,7 @@
         <v>44706</v>
       </c>
       <c r="B608" t="n">
-        <v>138.6348419189453</v>
+        <v>138.6348266601562</v>
       </c>
       <c r="C608" t="n">
         <v>140.5200042724609</v>
@@ -14532,7 +14532,7 @@
         <v>44714</v>
       </c>
       <c r="B613" t="n">
-        <v>149.1814270019531</v>
+        <v>149.1813812255859</v>
       </c>
       <c r="C613" t="n">
         <v>151.2100067138672</v>
@@ -14555,7 +14555,7 @@
         <v>44715</v>
       </c>
       <c r="B614" t="n">
-        <v>143.4296112060547</v>
+        <v>143.4296417236328</v>
       </c>
       <c r="C614" t="n">
         <v>145.3800048828125</v>
@@ -14578,7 +14578,7 @@
         <v>44718</v>
       </c>
       <c r="B615" t="n">
-        <v>144.1794281005859</v>
+        <v>144.1794128417969</v>
       </c>
       <c r="C615" t="n">
         <v>146.1399993896484</v>
@@ -14647,7 +14647,7 @@
         <v>44721</v>
       </c>
       <c r="B618" t="n">
-        <v>140.7263946533203</v>
+        <v>140.7263641357422</v>
       </c>
       <c r="C618" t="n">
         <v>142.6399993896484</v>
@@ -14670,7 +14670,7 @@
         <v>44722</v>
       </c>
       <c r="B619" t="n">
-        <v>135.2902679443359</v>
+        <v>135.2903137207031</v>
       </c>
       <c r="C619" t="n">
         <v>137.1300048828125</v>
@@ -14693,7 +14693,7 @@
         <v>44725</v>
       </c>
       <c r="B620" t="n">
-        <v>130.1107177734375</v>
+        <v>130.1107482910156</v>
       </c>
       <c r="C620" t="n">
         <v>131.8800048828125</v>
@@ -14739,7 +14739,7 @@
         <v>44727</v>
       </c>
       <c r="B622" t="n">
-        <v>133.6130828857422</v>
+        <v>133.6130981445312</v>
       </c>
       <c r="C622" t="n">
         <v>135.4299926757812</v>
@@ -14762,7 +14762,7 @@
         <v>44728</v>
       </c>
       <c r="B623" t="n">
-        <v>128.3151397705078</v>
+        <v>128.3151092529297</v>
       </c>
       <c r="C623" t="n">
         <v>130.0599975585938</v>
@@ -14785,7 +14785,7 @@
         <v>44729</v>
       </c>
       <c r="B624" t="n">
-        <v>129.7950134277344</v>
+        <v>129.7950439453125</v>
       </c>
       <c r="C624" t="n">
         <v>131.5599975585938</v>
@@ -14808,7 +14808,7 @@
         <v>44733</v>
       </c>
       <c r="B625" t="n">
-        <v>134.0471954345703</v>
+        <v>134.0471801757812</v>
       </c>
       <c r="C625" t="n">
         <v>135.8699951171875</v>
@@ -14854,7 +14854,7 @@
         <v>44735</v>
       </c>
       <c r="B627" t="n">
-        <v>136.4150085449219</v>
+        <v>136.4149932861328</v>
       </c>
       <c r="C627" t="n">
         <v>138.2700042724609</v>
@@ -14877,7 +14877,7 @@
         <v>44736</v>
       </c>
       <c r="B628" t="n">
-        <v>139.759521484375</v>
+        <v>139.7595062255859</v>
       </c>
       <c r="C628" t="n">
         <v>141.6600036621094</v>
@@ -14900,7 +14900,7 @@
         <v>44739</v>
       </c>
       <c r="B629" t="n">
-        <v>139.759521484375</v>
+        <v>139.7595062255859</v>
       </c>
       <c r="C629" t="n">
         <v>141.6600036621094</v>
@@ -14923,7 +14923,7 @@
         <v>44740</v>
       </c>
       <c r="B630" t="n">
-        <v>135.5961303710938</v>
+        <v>135.5961608886719</v>
       </c>
       <c r="C630" t="n">
         <v>137.4400024414062</v>
@@ -14946,7 +14946,7 @@
         <v>44741</v>
       </c>
       <c r="B631" t="n">
-        <v>137.3621215820312</v>
+        <v>137.3621520996094</v>
       </c>
       <c r="C631" t="n">
         <v>139.2299957275391</v>
@@ -14969,7 +14969,7 @@
         <v>44742</v>
       </c>
       <c r="B632" t="n">
-        <v>134.8857727050781</v>
+        <v>134.8858032226562</v>
       </c>
       <c r="C632" t="n">
         <v>136.7200012207031</v>
@@ -14992,7 +14992,7 @@
         <v>44743</v>
       </c>
       <c r="B633" t="n">
-        <v>137.066162109375</v>
+        <v>137.0661163330078</v>
       </c>
       <c r="C633" t="n">
         <v>138.9299926757812</v>
@@ -15015,7 +15015,7 @@
         <v>44747</v>
       </c>
       <c r="B634" t="n">
-        <v>139.6608581542969</v>
+        <v>139.6608734130859</v>
       </c>
       <c r="C634" t="n">
         <v>141.5599975585938</v>
@@ -15038,7 +15038,7 @@
         <v>44748</v>
       </c>
       <c r="B635" t="n">
-        <v>141.0025939941406</v>
+        <v>141.0026092529297</v>
       </c>
       <c r="C635" t="n">
         <v>142.9199981689453</v>
@@ -15061,7 +15061,7 @@
         <v>44749</v>
       </c>
       <c r="B636" t="n">
-        <v>144.3866271972656</v>
+        <v>144.3866119384766</v>
       </c>
       <c r="C636" t="n">
         <v>146.3500061035156</v>
@@ -15107,7 +15107,7 @@
         <v>44753</v>
       </c>
       <c r="B638" t="n">
-        <v>142.9264526367188</v>
+        <v>142.9264373779297</v>
       </c>
       <c r="C638" t="n">
         <v>144.8699951171875</v>
@@ -15130,7 +15130,7 @@
         <v>44754</v>
       </c>
       <c r="B639" t="n">
-        <v>143.9031829833984</v>
+        <v>143.9031677246094</v>
       </c>
       <c r="C639" t="n">
         <v>145.8600006103516</v>
@@ -15153,7 +15153,7 @@
         <v>44755</v>
       </c>
       <c r="B640" t="n">
-        <v>143.5381317138672</v>
+        <v>143.5381469726562</v>
       </c>
       <c r="C640" t="n">
         <v>145.4900054931641</v>
@@ -15176,7 +15176,7 @@
         <v>44756</v>
       </c>
       <c r="B641" t="n">
-        <v>146.4781494140625</v>
+        <v>146.4781799316406</v>
       </c>
       <c r="C641" t="n">
         <v>148.4700012207031</v>
@@ -15199,7 +15199,7 @@
         <v>44757</v>
       </c>
       <c r="B642" t="n">
-        <v>148.1553497314453</v>
+        <v>148.1553344726562</v>
       </c>
       <c r="C642" t="n">
         <v>150.1699981689453</v>
@@ -15222,7 +15222,7 @@
         <v>44760</v>
       </c>
       <c r="B643" t="n">
-        <v>145.0969390869141</v>
+        <v>145.0969543457031</v>
       </c>
       <c r="C643" t="n">
         <v>147.0700073242188</v>
@@ -15268,7 +15268,7 @@
         <v>44762</v>
       </c>
       <c r="B645" t="n">
-        <v>150.9868469238281</v>
+        <v>150.9868316650391</v>
       </c>
       <c r="C645" t="n">
         <v>153.0399932861328</v>
@@ -15291,7 +15291,7 @@
         <v>44763</v>
       </c>
       <c r="B646" t="n">
-        <v>153.265869140625</v>
+        <v>153.2658538818359</v>
       </c>
       <c r="C646" t="n">
         <v>155.3500061035156</v>
@@ -15314,7 +15314,7 @@
         <v>44764</v>
       </c>
       <c r="B647" t="n">
-        <v>152.0227661132812</v>
+        <v>152.0227508544922</v>
       </c>
       <c r="C647" t="n">
         <v>154.0899963378906</v>
@@ -15337,7 +15337,7 @@
         <v>44767</v>
       </c>
       <c r="B648" t="n">
-        <v>150.8980407714844</v>
+        <v>150.8980560302734</v>
       </c>
       <c r="C648" t="n">
         <v>152.9499969482422</v>
@@ -15360,7 +15360,7 @@
         <v>44768</v>
       </c>
       <c r="B649" t="n">
-        <v>149.5661468505859</v>
+        <v>149.5661773681641</v>
       </c>
       <c r="C649" t="n">
         <v>151.6000061035156</v>
@@ -15383,7 +15383,7 @@
         <v>44769</v>
       </c>
       <c r="B650" t="n">
-        <v>154.6865539550781</v>
+        <v>154.6865386962891</v>
       </c>
       <c r="C650" t="n">
         <v>156.7899932861328</v>
@@ -15475,7 +15475,7 @@
         <v>44775</v>
       </c>
       <c r="B654" t="n">
-        <v>157.8633422851562</v>
+        <v>157.8633270263672</v>
       </c>
       <c r="C654" t="n">
         <v>160.0099945068359</v>
@@ -15521,7 +15521,7 @@
         <v>44777</v>
       </c>
       <c r="B656" t="n">
-        <v>163.5855102539062</v>
+        <v>163.5855407714844</v>
       </c>
       <c r="C656" t="n">
         <v>165.8099975585938</v>
@@ -15544,7 +15544,7 @@
         <v>44778</v>
       </c>
       <c r="B657" t="n">
-        <v>163.3582916259766</v>
+        <v>163.3583221435547</v>
       </c>
       <c r="C657" t="n">
         <v>165.3500061035156</v>
@@ -15590,7 +15590,7 @@
         <v>44782</v>
       </c>
       <c r="B659" t="n">
-        <v>162.9334869384766</v>
+        <v>162.9334716796875</v>
       </c>
       <c r="C659" t="n">
         <v>164.9199981689453</v>
@@ -15613,7 +15613,7 @@
         <v>44783</v>
       </c>
       <c r="B660" t="n">
-        <v>167.2014617919922</v>
+        <v>167.2014465332031</v>
       </c>
       <c r="C660" t="n">
         <v>169.2400054931641</v>
@@ -15636,7 +15636,7 @@
         <v>44784</v>
       </c>
       <c r="B661" t="n">
-        <v>166.4604797363281</v>
+        <v>166.4604949951172</v>
       </c>
       <c r="C661" t="n">
         <v>168.4900054931641</v>
@@ -15659,7 +15659,7 @@
         <v>44785</v>
       </c>
       <c r="B662" t="n">
-        <v>170.0269927978516</v>
+        <v>170.0269775390625</v>
       </c>
       <c r="C662" t="n">
         <v>172.1000061035156</v>
@@ -15682,7 +15682,7 @@
         <v>44788</v>
       </c>
       <c r="B663" t="n">
-        <v>171.1038818359375</v>
+        <v>171.1038665771484</v>
       </c>
       <c r="C663" t="n">
         <v>173.1900024414062</v>
@@ -15728,7 +15728,7 @@
         <v>44790</v>
       </c>
       <c r="B665" t="n">
-        <v>172.4474792480469</v>
+        <v>172.4474639892578</v>
       </c>
       <c r="C665" t="n">
         <v>174.5500030517578</v>
@@ -15751,7 +15751,7 @@
         <v>44791</v>
       </c>
       <c r="B666" t="n">
-        <v>172.0522918701172</v>
+        <v>172.0523071289062</v>
       </c>
       <c r="C666" t="n">
         <v>174.1499938964844</v>
@@ -15774,7 +15774,7 @@
         <v>44792</v>
       </c>
       <c r="B667" t="n">
-        <v>169.4539642333984</v>
+        <v>169.4539794921875</v>
       </c>
       <c r="C667" t="n">
         <v>171.5200042724609</v>
@@ -15797,7 +15797,7 @@
         <v>44795</v>
       </c>
       <c r="B668" t="n">
-        <v>165.5515441894531</v>
+        <v>165.5515594482422</v>
       </c>
       <c r="C668" t="n">
         <v>167.5700073242188</v>
@@ -15820,7 +15820,7 @@
         <v>44796</v>
       </c>
       <c r="B669" t="n">
-        <v>165.2156219482422</v>
+        <v>165.2156524658203</v>
       </c>
       <c r="C669" t="n">
         <v>167.2299957275391</v>
@@ -15843,7 +15843,7 @@
         <v>44797</v>
       </c>
       <c r="B670" t="n">
-        <v>165.5120239257812</v>
+        <v>165.5120391845703</v>
       </c>
       <c r="C670" t="n">
         <v>167.5299987792969</v>
@@ -15866,7 +15866,7 @@
         <v>44798</v>
       </c>
       <c r="B671" t="n">
-        <v>167.98193359375</v>
+        <v>167.9819183349609</v>
       </c>
       <c r="C671" t="n">
         <v>170.0299987792969</v>
@@ -15889,7 +15889,7 @@
         <v>44799</v>
       </c>
       <c r="B672" t="n">
-        <v>161.6491394042969</v>
+        <v>161.6491241455078</v>
       </c>
       <c r="C672" t="n">
         <v>163.6199951171875</v>
@@ -15912,7 +15912,7 @@
         <v>44802</v>
       </c>
       <c r="B673" t="n">
-        <v>159.4361114501953</v>
+        <v>159.4361419677734</v>
       </c>
       <c r="C673" t="n">
         <v>161.3800048828125</v>
@@ -15935,7 +15935,7 @@
         <v>44803</v>
       </c>
       <c r="B674" t="n">
-        <v>156.9958801269531</v>
+        <v>156.9958648681641</v>
       </c>
       <c r="C674" t="n">
         <v>158.9100036621094</v>
@@ -15958,7 +15958,7 @@
         <v>44804</v>
       </c>
       <c r="B675" t="n">
-        <v>155.3262176513672</v>
+        <v>155.3262481689453</v>
       </c>
       <c r="C675" t="n">
         <v>157.2200012207031</v>
@@ -15981,7 +15981,7 @@
         <v>44805</v>
       </c>
       <c r="B676" t="n">
-        <v>156.0573272705078</v>
+        <v>156.0572967529297</v>
       </c>
       <c r="C676" t="n">
         <v>157.9600067138672</v>
@@ -16050,7 +16050,7 @@
         <v>44811</v>
       </c>
       <c r="B679" t="n">
-        <v>154.0813903808594</v>
+        <v>154.0814056396484</v>
       </c>
       <c r="C679" t="n">
         <v>155.9600067138672</v>
@@ -16073,7 +16073,7 @@
         <v>44812</v>
       </c>
       <c r="B680" t="n">
-        <v>152.5994720458984</v>
+        <v>152.5994873046875</v>
       </c>
       <c r="C680" t="n">
         <v>154.4600067138672</v>
@@ -16188,7 +16188,7 @@
         <v>44819</v>
       </c>
       <c r="B685" t="n">
-        <v>150.5346374511719</v>
+        <v>150.5346221923828</v>
       </c>
       <c r="C685" t="n">
         <v>152.3699951171875</v>
@@ -16257,7 +16257,7 @@
         <v>44824</v>
       </c>
       <c r="B688" t="n">
-        <v>155.0100555419922</v>
+        <v>155.0100860595703</v>
       </c>
       <c r="C688" t="n">
         <v>156.8999938964844</v>
@@ -16303,7 +16303,7 @@
         <v>44826</v>
       </c>
       <c r="B690" t="n">
-        <v>150.9002227783203</v>
+        <v>150.9001922607422</v>
       </c>
       <c r="C690" t="n">
         <v>152.7400054931641</v>
@@ -16349,7 +16349,7 @@
         <v>44830</v>
       </c>
       <c r="B692" t="n">
-        <v>148.9539184570312</v>
+        <v>148.9539031982422</v>
       </c>
       <c r="C692" t="n">
         <v>150.7700042724609</v>
@@ -16372,7 +16372,7 @@
         <v>44831</v>
       </c>
       <c r="B693" t="n">
-        <v>149.9319610595703</v>
+        <v>149.9319763183594</v>
       </c>
       <c r="C693" t="n">
         <v>151.7599945068359</v>
@@ -16464,7 +16464,7 @@
         <v>44837</v>
       </c>
       <c r="B697" t="n">
-        <v>140.734130859375</v>
+        <v>140.7341461181641</v>
       </c>
       <c r="C697" t="n">
         <v>142.4499969482422</v>
@@ -16510,7 +16510,7 @@
         <v>44839</v>
       </c>
       <c r="B699" t="n">
-        <v>144.6365356445312</v>
+        <v>144.6365509033203</v>
       </c>
       <c r="C699" t="n">
         <v>146.3999938964844</v>
@@ -16556,7 +16556,7 @@
         <v>44841</v>
       </c>
       <c r="B701" t="n">
-        <v>138.4025726318359</v>
+        <v>138.4025421142578</v>
       </c>
       <c r="C701" t="n">
         <v>140.0899963378906</v>
@@ -16602,7 +16602,7 @@
         <v>44845</v>
       </c>
       <c r="B703" t="n">
-        <v>137.3059234619141</v>
+        <v>137.3059387207031</v>
       </c>
       <c r="C703" t="n">
         <v>138.9799957275391</v>
@@ -16625,7 +16625,7 @@
         <v>44846</v>
       </c>
       <c r="B704" t="n">
-        <v>136.6736145019531</v>
+        <v>136.6736450195312</v>
       </c>
       <c r="C704" t="n">
         <v>138.3399963378906</v>
@@ -16671,7 +16671,7 @@
         <v>44848</v>
       </c>
       <c r="B706" t="n">
-        <v>136.7131652832031</v>
+        <v>136.7131805419922</v>
       </c>
       <c r="C706" t="n">
         <v>138.3800048828125</v>
@@ -16694,7 +16694,7 @@
         <v>44851</v>
       </c>
       <c r="B707" t="n">
-        <v>140.6946105957031</v>
+        <v>140.6946258544922</v>
       </c>
       <c r="C707" t="n">
         <v>142.4100036621094</v>
@@ -16717,7 +16717,7 @@
         <v>44852</v>
       </c>
       <c r="B708" t="n">
-        <v>142.0184631347656</v>
+        <v>142.0184936523438</v>
       </c>
       <c r="C708" t="n">
         <v>143.75</v>
@@ -16786,7 +16786,7 @@
         <v>44855</v>
       </c>
       <c r="B711" t="n">
-        <v>145.49609375</v>
+        <v>145.4961090087891</v>
       </c>
       <c r="C711" t="n">
         <v>147.2700042724609</v>
@@ -16832,7 +16832,7 @@
         <v>44859</v>
       </c>
       <c r="B713" t="n">
-        <v>150.5050048828125</v>
+        <v>150.5050201416016</v>
       </c>
       <c r="C713" t="n">
         <v>152.3399963378906</v>
@@ -16878,7 +16878,7 @@
         <v>44861</v>
       </c>
       <c r="B715" t="n">
-        <v>143.0558319091797</v>
+        <v>143.0558471679688</v>
       </c>
       <c r="C715" t="n">
         <v>144.8000030517578</v>
@@ -16924,7 +16924,7 @@
         <v>44865</v>
       </c>
       <c r="B717" t="n">
-        <v>151.4929504394531</v>
+        <v>151.4929809570312</v>
       </c>
       <c r="C717" t="n">
         <v>153.3399963378906</v>
@@ -16970,7 +16970,7 @@
         <v>44867</v>
       </c>
       <c r="B719" t="n">
-        <v>143.2830810546875</v>
+        <v>143.2830505371094</v>
       </c>
       <c r="C719" t="n">
         <v>145.0299987792969</v>
@@ -17039,7 +17039,7 @@
         <v>44872</v>
       </c>
       <c r="B722" t="n">
-        <v>137.4743347167969</v>
+        <v>137.4743194580078</v>
       </c>
       <c r="C722" t="n">
         <v>138.9199981689453</v>
@@ -17062,7 +17062,7 @@
         <v>44873</v>
       </c>
       <c r="B723" t="n">
-        <v>138.0482940673828</v>
+        <v>138.0482788085938</v>
       </c>
       <c r="C723" t="n">
         <v>139.5</v>
@@ -17108,7 +17108,7 @@
         <v>44875</v>
       </c>
       <c r="B725" t="n">
-        <v>145.3415985107422</v>
+        <v>145.3416137695312</v>
       </c>
       <c r="C725" t="n">
         <v>146.8699951171875</v>
@@ -17131,7 +17131,7 @@
         <v>44876</v>
       </c>
       <c r="B726" t="n">
-        <v>148.1421356201172</v>
+        <v>148.1421203613281</v>
       </c>
       <c r="C726" t="n">
         <v>149.6999969482422</v>
@@ -17154,7 +17154,7 @@
         <v>44879</v>
       </c>
       <c r="B727" t="n">
-        <v>146.7369384765625</v>
+        <v>146.7369232177734</v>
       </c>
       <c r="C727" t="n">
         <v>148.2799987792969</v>
@@ -17177,7 +17177,7 @@
         <v>44880</v>
       </c>
       <c r="B728" t="n">
-        <v>148.4786071777344</v>
+        <v>148.4786224365234</v>
       </c>
       <c r="C728" t="n">
         <v>150.0399932861328</v>
@@ -17223,7 +17223,7 @@
         <v>44882</v>
       </c>
       <c r="B730" t="n">
-        <v>149.1515197753906</v>
+        <v>149.1515350341797</v>
       </c>
       <c r="C730" t="n">
         <v>150.7200012207031</v>
@@ -17246,7 +17246,7 @@
         <v>44883</v>
       </c>
       <c r="B731" t="n">
-        <v>149.7156219482422</v>
+        <v>149.7155914306641</v>
       </c>
       <c r="C731" t="n">
         <v>151.2899932861328</v>
@@ -17292,7 +17292,7 @@
         <v>44887</v>
       </c>
       <c r="B733" t="n">
-        <v>148.6171417236328</v>
+        <v>148.6171264648438</v>
       </c>
       <c r="C733" t="n">
         <v>150.1799926757812</v>
@@ -17338,7 +17338,7 @@
         <v>44890</v>
       </c>
       <c r="B735" t="n">
-        <v>146.5687255859375</v>
+        <v>146.5687103271484</v>
       </c>
       <c r="C735" t="n">
         <v>148.1100006103516</v>
@@ -17361,7 +17361,7 @@
         <v>44893</v>
       </c>
       <c r="B736" t="n">
-        <v>142.7191772460938</v>
+        <v>142.7192077636719</v>
       </c>
       <c r="C736" t="n">
         <v>144.2200012207031</v>
@@ -17430,7 +17430,7 @@
         <v>44896</v>
       </c>
       <c r="B739" t="n">
-        <v>146.7666168212891</v>
+        <v>146.7666320800781</v>
       </c>
       <c r="C739" t="n">
         <v>148.3099975585938</v>
@@ -17476,7 +17476,7 @@
         <v>44900</v>
       </c>
       <c r="B741" t="n">
-        <v>145.1041107177734</v>
+        <v>145.1040954589844</v>
       </c>
       <c r="C741" t="n">
         <v>146.6300048828125</v>
@@ -17499,7 +17499,7 @@
         <v>44901</v>
       </c>
       <c r="B742" t="n">
-        <v>141.4227905273438</v>
+        <v>141.4228210449219</v>
       </c>
       <c r="C742" t="n">
         <v>142.9100036621094</v>
@@ -17545,7 +17545,7 @@
         <v>44903</v>
       </c>
       <c r="B744" t="n">
-        <v>141.16552734375</v>
+        <v>141.1654968261719</v>
       </c>
       <c r="C744" t="n">
         <v>142.6499938964844</v>
@@ -17568,7 +17568,7 @@
         <v>44904</v>
       </c>
       <c r="B745" t="n">
-        <v>140.6806182861328</v>
+        <v>140.6806335449219</v>
       </c>
       <c r="C745" t="n">
         <v>142.1600036621094</v>
@@ -17637,7 +17637,7 @@
         <v>44909</v>
       </c>
       <c r="B748" t="n">
-        <v>141.7196655273438</v>
+        <v>141.7197113037109</v>
       </c>
       <c r="C748" t="n">
         <v>143.2100067138672</v>
@@ -17660,7 +17660,7 @@
         <v>44910</v>
       </c>
       <c r="B749" t="n">
-        <v>135.0795288085938</v>
+        <v>135.0794982910156</v>
       </c>
       <c r="C749" t="n">
         <v>136.5</v>
@@ -17683,7 +17683,7 @@
         <v>44911</v>
       </c>
       <c r="B750" t="n">
-        <v>133.1102447509766</v>
+        <v>133.1102294921875</v>
       </c>
       <c r="C750" t="n">
         <v>134.5099945068359</v>
@@ -17706,7 +17706,7 @@
         <v>44914</v>
       </c>
       <c r="B751" t="n">
-        <v>130.9925079345703</v>
+        <v>130.9924926757812</v>
       </c>
       <c r="C751" t="n">
         <v>132.3699951171875</v>
@@ -17752,7 +17752,7 @@
         <v>44916</v>
       </c>
       <c r="B753" t="n">
-        <v>134.0404663085938</v>
+        <v>134.0404510498047</v>
       </c>
       <c r="C753" t="n">
         <v>135.4499969482422</v>
@@ -17775,7 +17775,7 @@
         <v>44917</v>
       </c>
       <c r="B754" t="n">
-        <v>130.8539428710938</v>
+        <v>130.8539276123047</v>
       </c>
       <c r="C754" t="n">
         <v>132.2299957275391</v>
@@ -17798,7 +17798,7 @@
         <v>44918</v>
       </c>
       <c r="B755" t="n">
-        <v>130.48779296875</v>
+        <v>130.4878082275391</v>
       </c>
       <c r="C755" t="n">
         <v>131.8600006103516</v>
@@ -17821,7 +17821,7 @@
         <v>44922</v>
       </c>
       <c r="B756" t="n">
-        <v>128.6768341064453</v>
+        <v>128.6768646240234</v>
       </c>
       <c r="C756" t="n">
         <v>130.0299987792969</v>
@@ -17844,7 +17844,7 @@
         <v>44923</v>
       </c>
       <c r="B757" t="n">
-        <v>124.7283630371094</v>
+        <v>124.7283706665039</v>
       </c>
       <c r="C757" t="n">
         <v>126.0400009155273</v>
@@ -17867,7 +17867,7 @@
         <v>44924</v>
       </c>
       <c r="B758" t="n">
-        <v>128.2611999511719</v>
+        <v>128.2612152099609</v>
       </c>
       <c r="C758" t="n">
         <v>129.6100006103516</v>
@@ -17890,7 +17890,7 @@
         <v>44925</v>
       </c>
       <c r="B759" t="n">
-        <v>128.5778656005859</v>
+        <v>128.5778961181641</v>
       </c>
       <c r="C759" t="n">
         <v>129.9299926757812</v>
@@ -17959,7 +17959,7 @@
         <v>44931</v>
       </c>
       <c r="B762" t="n">
-        <v>123.7189788818359</v>
+        <v>123.7189865112305</v>
       </c>
       <c r="C762" t="n">
         <v>125.0199966430664</v>
@@ -17982,7 +17982,7 @@
         <v>44932</v>
       </c>
       <c r="B763" t="n">
-        <v>128.2710876464844</v>
+        <v>128.2711029052734</v>
       </c>
       <c r="C763" t="n">
         <v>129.6199951171875</v>
@@ -18028,7 +18028,7 @@
         <v>44936</v>
       </c>
       <c r="B765" t="n">
-        <v>129.3695678710938</v>
+        <v>129.3695373535156</v>
       </c>
       <c r="C765" t="n">
         <v>130.7299957275391</v>
@@ -18051,7 +18051,7 @@
         <v>44937</v>
       </c>
       <c r="B766" t="n">
-        <v>132.1008758544922</v>
+        <v>132.1008605957031</v>
       </c>
       <c r="C766" t="n">
         <v>133.4900054931641</v>
@@ -18074,7 +18074,7 @@
         <v>44938</v>
       </c>
       <c r="B767" t="n">
-        <v>132.0216979980469</v>
+        <v>132.0216827392578</v>
       </c>
       <c r="C767" t="n">
         <v>133.4100036621094</v>
@@ -18097,7 +18097,7 @@
         <v>44939</v>
       </c>
       <c r="B768" t="n">
-        <v>133.3576354980469</v>
+        <v>133.3576202392578</v>
       </c>
       <c r="C768" t="n">
         <v>134.7599945068359</v>
@@ -18120,7 +18120,7 @@
         <v>44943</v>
       </c>
       <c r="B769" t="n">
-        <v>134.5253448486328</v>
+        <v>134.5253601074219</v>
       </c>
       <c r="C769" t="n">
         <v>135.9400024414062</v>
@@ -18143,7 +18143,7 @@
         <v>44944</v>
       </c>
       <c r="B770" t="n">
-        <v>133.8029479980469</v>
+        <v>133.8029327392578</v>
       </c>
       <c r="C770" t="n">
         <v>135.2100067138672</v>
@@ -18166,7 +18166,7 @@
         <v>44945</v>
       </c>
       <c r="B771" t="n">
-        <v>133.8622894287109</v>
+        <v>133.8623352050781</v>
       </c>
       <c r="C771" t="n">
         <v>135.2700042724609</v>
@@ -18212,7 +18212,7 @@
         <v>44949</v>
       </c>
       <c r="B773" t="n">
-        <v>139.6415557861328</v>
+        <v>139.6415405273438</v>
       </c>
       <c r="C773" t="n">
         <v>141.1100006103516</v>
@@ -18235,7 +18235,7 @@
         <v>44950</v>
       </c>
       <c r="B774" t="n">
-        <v>141.0467681884766</v>
+        <v>141.0467529296875</v>
       </c>
       <c r="C774" t="n">
         <v>142.5299987792969</v>
@@ -18304,7 +18304,7 @@
         <v>44953</v>
       </c>
       <c r="B777" t="n">
-        <v>144.4113922119141</v>
+        <v>144.411376953125</v>
       </c>
       <c r="C777" t="n">
         <v>145.9299926757812</v>
@@ -18327,7 +18327,7 @@
         <v>44956</v>
       </c>
       <c r="B778" t="n">
-        <v>141.5118713378906</v>
+        <v>141.5118865966797</v>
       </c>
       <c r="C778" t="n">
         <v>143</v>
@@ -18373,7 +18373,7 @@
         <v>44958</v>
       </c>
       <c r="B780" t="n">
-        <v>143.9165649414062</v>
+        <v>143.9165802001953</v>
       </c>
       <c r="C780" t="n">
         <v>145.4299926757812</v>
@@ -18419,7 +18419,7 @@
         <v>44960</v>
       </c>
       <c r="B782" t="n">
-        <v>152.8921966552734</v>
+        <v>152.8921661376953</v>
       </c>
       <c r="C782" t="n">
         <v>154.5</v>
@@ -18465,7 +18465,7 @@
         <v>44964</v>
       </c>
       <c r="B784" t="n">
-        <v>153.0406341552734</v>
+        <v>153.0406188964844</v>
       </c>
       <c r="C784" t="n">
         <v>154.6499938964844</v>
@@ -18488,7 +18488,7 @@
         <v>44965</v>
       </c>
       <c r="B785" t="n">
-        <v>150.3390502929688</v>
+        <v>150.3390350341797</v>
       </c>
       <c r="C785" t="n">
         <v>151.9199981689453</v>
@@ -18511,7 +18511,7 @@
         <v>44966</v>
       </c>
       <c r="B786" t="n">
-        <v>149.2999877929688</v>
+        <v>149.2999572753906</v>
       </c>
       <c r="C786" t="n">
         <v>150.8699951171875</v>
@@ -18534,7 +18534,7 @@
         <v>44967</v>
       </c>
       <c r="B787" t="n">
-        <v>149.6666870117188</v>
+        <v>149.6666564941406</v>
       </c>
       <c r="C787" t="n">
         <v>151.0099945068359</v>
@@ -18580,7 +18580,7 @@
         <v>44971</v>
       </c>
       <c r="B789" t="n">
-        <v>151.8371734619141</v>
+        <v>151.8372039794922</v>
       </c>
       <c r="C789" t="n">
         <v>153.1999969482422</v>
@@ -18603,7 +18603,7 @@
         <v>44972</v>
       </c>
       <c r="B790" t="n">
-        <v>153.9482574462891</v>
+        <v>153.9482727050781</v>
       </c>
       <c r="C790" t="n">
         <v>155.3300018310547</v>
@@ -18626,7 +18626,7 @@
         <v>44973</v>
       </c>
       <c r="B791" t="n">
-        <v>152.3426818847656</v>
+        <v>152.3426666259766</v>
       </c>
       <c r="C791" t="n">
         <v>153.7100067138672</v>
@@ -18649,7 +18649,7 @@
         <v>44974</v>
       </c>
       <c r="B792" t="n">
-        <v>151.1930084228516</v>
+        <v>151.1929626464844</v>
       </c>
       <c r="C792" t="n">
         <v>152.5500030517578</v>
@@ -18718,7 +18718,7 @@
         <v>44980</v>
       </c>
       <c r="B795" t="n">
-        <v>148.0710144042969</v>
+        <v>148.0709838867188</v>
       </c>
       <c r="C795" t="n">
         <v>149.3999938964844</v>
@@ -18741,7 +18741,7 @@
         <v>44981</v>
       </c>
       <c r="B796" t="n">
-        <v>145.4049377441406</v>
+        <v>145.4049530029297</v>
       </c>
       <c r="C796" t="n">
         <v>146.7100067138672</v>
@@ -18833,7 +18833,7 @@
         <v>44987</v>
       </c>
       <c r="B800" t="n">
-        <v>144.6120452880859</v>
+        <v>144.6120300292969</v>
       </c>
       <c r="C800" t="n">
         <v>145.9100036621094</v>
@@ -18902,7 +18902,7 @@
         <v>44992</v>
       </c>
       <c r="B803" t="n">
-        <v>150.2514190673828</v>
+        <v>150.2514343261719</v>
       </c>
       <c r="C803" t="n">
         <v>151.6000061035156</v>
@@ -18925,7 +18925,7 @@
         <v>44993</v>
       </c>
       <c r="B804" t="n">
-        <v>151.5101470947266</v>
+        <v>151.5101318359375</v>
       </c>
       <c r="C804" t="n">
         <v>152.8699951171875</v>
@@ -18948,7 +18948,7 @@
         <v>44994</v>
       </c>
       <c r="B805" t="n">
-        <v>149.2504272460938</v>
+        <v>149.2504119873047</v>
       </c>
       <c r="C805" t="n">
         <v>150.5899963378906</v>
@@ -18971,7 +18971,7 @@
         <v>44995</v>
       </c>
       <c r="B806" t="n">
-        <v>147.1789855957031</v>
+        <v>147.1790008544922</v>
       </c>
       <c r="C806" t="n">
         <v>148.5</v>
@@ -19040,7 +19040,7 @@
         <v>45000</v>
       </c>
       <c r="B809" t="n">
-        <v>151.6290740966797</v>
+        <v>151.6290893554688</v>
       </c>
       <c r="C809" t="n">
         <v>152.9900054931641</v>
@@ -19063,7 +19063,7 @@
         <v>45001</v>
       </c>
       <c r="B810" t="n">
-        <v>154.4636535644531</v>
+        <v>154.463623046875</v>
       </c>
       <c r="C810" t="n">
         <v>155.8500061035156</v>
@@ -19086,7 +19086,7 @@
         <v>45002</v>
       </c>
       <c r="B811" t="n">
-        <v>153.6212005615234</v>
+        <v>153.6211853027344</v>
       </c>
       <c r="C811" t="n">
         <v>155</v>
@@ -19155,7 +19155,7 @@
         <v>45007</v>
       </c>
       <c r="B814" t="n">
-        <v>156.4260101318359</v>
+        <v>156.426025390625</v>
       </c>
       <c r="C814" t="n">
         <v>157.8300018310547</v>
@@ -19293,7 +19293,7 @@
         <v>45015</v>
       </c>
       <c r="B820" t="n">
-        <v>160.9157104492188</v>
+        <v>160.9157257080078</v>
       </c>
       <c r="C820" t="n">
         <v>162.3600006103516</v>
@@ -19316,7 +19316,7 @@
         <v>45016</v>
       </c>
       <c r="B821" t="n">
-        <v>163.4331207275391</v>
+        <v>163.43310546875</v>
       </c>
       <c r="C821" t="n">
         <v>164.8999938964844</v>
@@ -19477,7 +19477,7 @@
         <v>45028</v>
       </c>
       <c r="B828" t="n">
-        <v>158.6758270263672</v>
+        <v>158.6757965087891</v>
       </c>
       <c r="C828" t="n">
         <v>160.1000061035156</v>
@@ -19523,7 +19523,7 @@
         <v>45030</v>
       </c>
       <c r="B830" t="n">
-        <v>163.7404022216797</v>
+        <v>163.7403564453125</v>
       </c>
       <c r="C830" t="n">
         <v>165.2100067138672</v>
@@ -19546,7 +19546,7 @@
         <v>45033</v>
       </c>
       <c r="B831" t="n">
-        <v>163.7601776123047</v>
+        <v>163.7601928710938</v>
       </c>
       <c r="C831" t="n">
         <v>165.2299957275391</v>
@@ -19569,7 +19569,7 @@
         <v>45034</v>
       </c>
       <c r="B832" t="n">
-        <v>164.9891510009766</v>
+        <v>164.9891662597656</v>
       </c>
       <c r="C832" t="n">
         <v>166.4700012207031</v>
@@ -19615,7 +19615,7 @@
         <v>45036</v>
       </c>
       <c r="B834" t="n">
-        <v>165.1675415039062</v>
+        <v>165.1675567626953</v>
       </c>
       <c r="C834" t="n">
         <v>166.6499938964844</v>
@@ -19638,7 +19638,7 @@
         <v>45037</v>
       </c>
       <c r="B835" t="n">
-        <v>163.5520629882812</v>
+        <v>163.5520782470703</v>
       </c>
       <c r="C835" t="n">
         <v>165.0200042724609</v>
@@ -19661,7 +19661,7 @@
         <v>45040</v>
       </c>
       <c r="B836" t="n">
-        <v>163.8593139648438</v>
+        <v>163.8592987060547</v>
       </c>
       <c r="C836" t="n">
         <v>165.3300018310547</v>
@@ -19684,7 +19684,7 @@
         <v>45041</v>
       </c>
       <c r="B837" t="n">
-        <v>162.3132019042969</v>
+        <v>162.3131713867188</v>
       </c>
       <c r="C837" t="n">
         <v>163.7700042724609</v>
@@ -19730,7 +19730,7 @@
         <v>45043</v>
       </c>
       <c r="B839" t="n">
-        <v>166.9118957519531</v>
+        <v>166.9119110107422</v>
       </c>
       <c r="C839" t="n">
         <v>168.4100036621094</v>
@@ -19753,7 +19753,7 @@
         <v>45044</v>
       </c>
       <c r="B840" t="n">
-        <v>168.1705932617188</v>
+        <v>168.1705780029297</v>
       </c>
       <c r="C840" t="n">
         <v>169.6799926757812</v>
@@ -19776,7 +19776,7 @@
         <v>45047</v>
       </c>
       <c r="B841" t="n">
-        <v>168.0814056396484</v>
+        <v>168.0813903808594</v>
       </c>
       <c r="C841" t="n">
         <v>169.5899963378906</v>
@@ -19845,7 +19845,7 @@
         <v>45050</v>
       </c>
       <c r="B844" t="n">
-        <v>164.315185546875</v>
+        <v>164.3152008056641</v>
       </c>
       <c r="C844" t="n">
         <v>165.7899932861328</v>
@@ -19868,7 +19868,7 @@
         <v>45051</v>
       </c>
       <c r="B845" t="n">
-        <v>172.0260009765625</v>
+        <v>172.0260162353516</v>
       </c>
       <c r="C845" t="n">
         <v>173.5700073242188</v>
@@ -19891,7 +19891,7 @@
         <v>45054</v>
       </c>
       <c r="B846" t="n">
-        <v>171.9566040039062</v>
+        <v>171.9566192626953</v>
       </c>
       <c r="C846" t="n">
         <v>173.5</v>
@@ -19914,7 +19914,7 @@
         <v>45055</v>
       </c>
       <c r="B847" t="n">
-        <v>170.2420196533203</v>
+        <v>170.2420043945312</v>
       </c>
       <c r="C847" t="n">
         <v>171.7700042724609</v>
@@ -19937,7 +19937,7 @@
         <v>45056</v>
       </c>
       <c r="B848" t="n">
-        <v>172.0160980224609</v>
+        <v>172.0160827636719</v>
       </c>
       <c r="C848" t="n">
         <v>173.5599975585938</v>
@@ -19960,7 +19960,7 @@
         <v>45057</v>
       </c>
       <c r="B849" t="n">
-        <v>172.2043762207031</v>
+        <v>172.2044067382812</v>
       </c>
       <c r="C849" t="n">
         <v>173.75</v>
@@ -20052,7 +20052,7 @@
         <v>45063</v>
       </c>
       <c r="B853" t="n">
-        <v>171.3905944824219</v>
+        <v>171.3905639648438</v>
       </c>
       <c r="C853" t="n">
         <v>172.6900024414062</v>
@@ -20075,7 +20075,7 @@
         <v>45064</v>
       </c>
       <c r="B854" t="n">
-        <v>173.7327880859375</v>
+        <v>173.7328338623047</v>
       </c>
       <c r="C854" t="n">
         <v>175.0500030517578</v>
@@ -20098,7 +20098,7 @@
         <v>45065</v>
       </c>
       <c r="B855" t="n">
-        <v>173.8419952392578</v>
+        <v>173.8419647216797</v>
       </c>
       <c r="C855" t="n">
         <v>175.1600036621094</v>
@@ -20121,7 +20121,7 @@
         <v>45068</v>
       </c>
       <c r="B856" t="n">
-        <v>172.8891754150391</v>
+        <v>172.8891906738281</v>
       </c>
       <c r="C856" t="n">
         <v>174.1999969482422</v>
@@ -20144,7 +20144,7 @@
         <v>45069</v>
       </c>
       <c r="B857" t="n">
-        <v>170.2690582275391</v>
+        <v>170.2690734863281</v>
       </c>
       <c r="C857" t="n">
         <v>171.5599975585938</v>
@@ -20167,7 +20167,7 @@
         <v>45070</v>
       </c>
       <c r="B858" t="n">
-        <v>170.5469512939453</v>
+        <v>170.5469665527344</v>
       </c>
       <c r="C858" t="n">
         <v>171.8399963378906</v>
@@ -20213,7 +20213,7 @@
         <v>45072</v>
       </c>
       <c r="B860" t="n">
-        <v>174.1099395751953</v>
+        <v>174.1099548339844</v>
       </c>
       <c r="C860" t="n">
         <v>175.4299926757812</v>
@@ -20259,7 +20259,7 @@
         <v>45077</v>
       </c>
       <c r="B862" t="n">
-        <v>175.9162750244141</v>
+        <v>175.916259765625</v>
       </c>
       <c r="C862" t="n">
         <v>177.25</v>
@@ -20305,7 +20305,7 @@
         <v>45079</v>
       </c>
       <c r="B864" t="n">
-        <v>179.5883941650391</v>
+        <v>179.5884094238281</v>
       </c>
       <c r="C864" t="n">
         <v>180.9499969482422</v>
@@ -20328,7 +20328,7 @@
         <v>45082</v>
       </c>
       <c r="B865" t="n">
-        <v>178.2287139892578</v>
+        <v>178.2287292480469</v>
       </c>
       <c r="C865" t="n">
         <v>179.5800018310547</v>
@@ -20374,7 +20374,7 @@
         <v>45084</v>
       </c>
       <c r="B867" t="n">
-        <v>176.4819488525391</v>
+        <v>176.4819946289062</v>
       </c>
       <c r="C867" t="n">
         <v>177.8200073242188</v>
@@ -20420,7 +20420,7 @@
         <v>45086</v>
       </c>
       <c r="B869" t="n">
-        <v>179.5983276367188</v>
+        <v>179.5983581542969</v>
       </c>
       <c r="C869" t="n">
         <v>180.9600067138672</v>
@@ -20466,7 +20466,7 @@
         <v>45090</v>
       </c>
       <c r="B871" t="n">
-        <v>181.9306488037109</v>
+        <v>181.9306640625</v>
       </c>
       <c r="C871" t="n">
         <v>183.3099975585938</v>
@@ -20489,7 +20489,7 @@
         <v>45091</v>
       </c>
       <c r="B872" t="n">
-        <v>182.5658569335938</v>
+        <v>182.5658416748047</v>
       </c>
       <c r="C872" t="n">
         <v>183.9499969482422</v>
@@ -20512,7 +20512,7 @@
         <v>45092</v>
       </c>
       <c r="B873" t="n">
-        <v>184.6103363037109</v>
+        <v>184.6103210449219</v>
       </c>
       <c r="C873" t="n">
         <v>186.0099945068359</v>
@@ -20535,7 +20535,7 @@
         <v>45093</v>
       </c>
       <c r="B874" t="n">
-        <v>183.5285186767578</v>
+        <v>183.5285491943359</v>
       </c>
       <c r="C874" t="n">
         <v>184.9199981689453</v>
@@ -20558,7 +20558,7 @@
         <v>45097</v>
       </c>
       <c r="B875" t="n">
-        <v>183.6178436279297</v>
+        <v>183.6178588867188</v>
       </c>
       <c r="C875" t="n">
         <v>185.0099945068359</v>
@@ -20581,7 +20581,7 @@
         <v>45098</v>
       </c>
       <c r="B876" t="n">
-        <v>182.5757751464844</v>
+        <v>182.5757598876953</v>
       </c>
       <c r="C876" t="n">
         <v>183.9600067138672</v>
@@ -20604,7 +20604,7 @@
         <v>45099</v>
       </c>
       <c r="B877" t="n">
-        <v>185.5928955078125</v>
+        <v>185.5928802490234</v>
       </c>
       <c r="C877" t="n">
         <v>187</v>
@@ -20627,7 +20627,7 @@
         <v>45100</v>
       </c>
       <c r="B878" t="n">
-        <v>185.2752838134766</v>
+        <v>185.2752990722656</v>
       </c>
       <c r="C878" t="n">
         <v>186.6799926757812</v>
@@ -20650,7 +20650,7 @@
         <v>45103</v>
       </c>
       <c r="B879" t="n">
-        <v>183.8759002685547</v>
+        <v>183.8759155273438</v>
       </c>
       <c r="C879" t="n">
         <v>185.2700042724609</v>
@@ -20719,7 +20719,7 @@
         <v>45106</v>
       </c>
       <c r="B882" t="n">
-        <v>188.1633911132812</v>
+        <v>188.1634063720703</v>
       </c>
       <c r="C882" t="n">
         <v>189.5899963378906</v>
@@ -20742,7 +20742,7 @@
         <v>45107</v>
       </c>
       <c r="B883" t="n">
-        <v>192.5104217529297</v>
+        <v>192.5104522705078</v>
       </c>
       <c r="C883" t="n">
         <v>193.9700012207031</v>
@@ -20765,7 +20765,7 @@
         <v>45110</v>
       </c>
       <c r="B884" t="n">
-        <v>191.0118408203125</v>
+        <v>191.0118103027344</v>
       </c>
       <c r="C884" t="n">
         <v>192.4600067138672</v>
@@ -20788,7 +20788,7 @@
         <v>45112</v>
       </c>
       <c r="B885" t="n">
-        <v>189.8903045654297</v>
+        <v>189.8903350830078</v>
       </c>
       <c r="C885" t="n">
         <v>191.3300018310547</v>
@@ -20811,7 +20811,7 @@
         <v>45113</v>
       </c>
       <c r="B886" t="n">
-        <v>190.36669921875</v>
+        <v>190.3666839599609</v>
       </c>
       <c r="C886" t="n">
         <v>191.8099975585938</v>
@@ -20834,7 +20834,7 @@
         <v>45114</v>
       </c>
       <c r="B887" t="n">
-        <v>189.2451934814453</v>
+        <v>189.2451782226562</v>
       </c>
       <c r="C887" t="n">
         <v>190.6799926757812</v>
@@ -20857,7 +20857,7 @@
         <v>45117</v>
       </c>
       <c r="B888" t="n">
-        <v>187.1907806396484</v>
+        <v>187.1907653808594</v>
       </c>
       <c r="C888" t="n">
         <v>188.6100006103516</v>
@@ -20880,7 +20880,7 @@
         <v>45118</v>
       </c>
       <c r="B889" t="n">
-        <v>186.6647796630859</v>
+        <v>186.6647338867188</v>
       </c>
       <c r="C889" t="n">
         <v>188.0800018310547</v>
@@ -20949,7 +20949,7 @@
         <v>45121</v>
       </c>
       <c r="B892" t="n">
-        <v>189.255126953125</v>
+        <v>189.2551422119141</v>
       </c>
       <c r="C892" t="n">
         <v>190.6900024414062</v>
@@ -20972,7 +20972,7 @@
         <v>45124</v>
       </c>
       <c r="B893" t="n">
-        <v>192.5303039550781</v>
+        <v>192.5302734375</v>
       </c>
       <c r="C893" t="n">
         <v>193.9900054931641</v>
@@ -20995,7 +20995,7 @@
         <v>45125</v>
       </c>
       <c r="B894" t="n">
-        <v>192.2722320556641</v>
+        <v>192.2722473144531</v>
       </c>
       <c r="C894" t="n">
         <v>193.7299957275391</v>
@@ -21018,7 +21018,7 @@
         <v>45126</v>
       </c>
       <c r="B895" t="n">
-        <v>193.6319427490234</v>
+        <v>193.6319274902344</v>
       </c>
       <c r="C895" t="n">
         <v>195.1000061035156</v>
@@ -21087,7 +21087,7 @@
         <v>45131</v>
       </c>
       <c r="B898" t="n">
-        <v>191.2996368408203</v>
+        <v>191.2996215820312</v>
       </c>
       <c r="C898" t="n">
         <v>192.75</v>
@@ -21110,7 +21110,7 @@
         <v>45132</v>
       </c>
       <c r="B899" t="n">
-        <v>192.1630706787109</v>
+        <v>192.1630859375</v>
       </c>
       <c r="C899" t="n">
         <v>193.6199951171875</v>
@@ -21133,7 +21133,7 @@
         <v>45133</v>
       </c>
       <c r="B900" t="n">
-        <v>193.0364532470703</v>
+        <v>193.0364685058594</v>
       </c>
       <c r="C900" t="n">
         <v>194.5</v>
@@ -21179,7 +21179,7 @@
         <v>45135</v>
       </c>
       <c r="B902" t="n">
-        <v>194.3564605712891</v>
+        <v>194.3564453125</v>
       </c>
       <c r="C902" t="n">
         <v>195.8300018310547</v>
@@ -21202,7 +21202,7 @@
         <v>45138</v>
       </c>
       <c r="B903" t="n">
-        <v>194.9717864990234</v>
+        <v>194.9717712402344</v>
       </c>
       <c r="C903" t="n">
         <v>196.4499969482422</v>
@@ -21225,7 +21225,7 @@
         <v>45139</v>
       </c>
       <c r="B904" t="n">
-        <v>194.1380920410156</v>
+        <v>194.1381072998047</v>
       </c>
       <c r="C904" t="n">
         <v>195.6100006103516</v>
@@ -21248,7 +21248,7 @@
         <v>45140</v>
       </c>
       <c r="B905" t="n">
-        <v>191.1309051513672</v>
+        <v>191.1308898925781</v>
       </c>
       <c r="C905" t="n">
         <v>192.5800018310547</v>
@@ -21317,7 +21317,7 @@
         <v>45145</v>
       </c>
       <c r="B908" t="n">
-        <v>177.5041961669922</v>
+        <v>177.5042266845703</v>
       </c>
       <c r="C908" t="n">
         <v>178.8500061035156</v>
@@ -21363,7 +21363,7 @@
         <v>45147</v>
       </c>
       <c r="B910" t="n">
-        <v>176.8491973876953</v>
+        <v>176.8491821289062</v>
       </c>
       <c r="C910" t="n">
         <v>178.1900024414062</v>
@@ -21386,7 +21386,7 @@
         <v>45148</v>
       </c>
       <c r="B911" t="n">
-        <v>176.6308288574219</v>
+        <v>176.6308441162109</v>
       </c>
       <c r="C911" t="n">
         <v>177.9700012207031</v>
@@ -21432,7 +21432,7 @@
         <v>45152</v>
       </c>
       <c r="B913" t="n">
-        <v>178.3501434326172</v>
+        <v>178.3501281738281</v>
       </c>
       <c r="C913" t="n">
         <v>179.4600067138672</v>
@@ -21501,7 +21501,7 @@
         <v>45155</v>
       </c>
       <c r="B916" t="n">
-        <v>172.9239044189453</v>
+        <v>172.9238891601562</v>
       </c>
       <c r="C916" t="n">
         <v>174</v>
@@ -21524,7 +21524,7 @@
         <v>45156</v>
       </c>
       <c r="B917" t="n">
-        <v>173.4108734130859</v>
+        <v>173.410888671875</v>
       </c>
       <c r="C917" t="n">
         <v>174.4900054931641</v>
@@ -21593,7 +21593,7 @@
         <v>45161</v>
       </c>
       <c r="B920" t="n">
-        <v>179.9998931884766</v>
+        <v>179.9998779296875</v>
       </c>
       <c r="C920" t="n">
         <v>181.1199951171875</v>
@@ -21616,7 +21616,7 @@
         <v>45162</v>
       </c>
       <c r="B921" t="n">
-        <v>175.2891845703125</v>
+        <v>175.2891998291016</v>
       </c>
       <c r="C921" t="n">
         <v>176.3800048828125</v>
@@ -21662,7 +21662,7 @@
         <v>45166</v>
       </c>
       <c r="B923" t="n">
-        <v>179.0756225585938</v>
+        <v>179.0756378173828</v>
       </c>
       <c r="C923" t="n">
         <v>180.1900024414062</v>
@@ -21685,7 +21685,7 @@
         <v>45167</v>
       </c>
       <c r="B924" t="n">
-        <v>182.9813232421875</v>
+        <v>182.9813079833984</v>
       </c>
       <c r="C924" t="n">
         <v>184.1199951171875</v>
@@ -21708,7 +21708,7 @@
         <v>45168</v>
       </c>
       <c r="B925" t="n">
-        <v>186.489501953125</v>
+        <v>186.4894866943359</v>
       </c>
       <c r="C925" t="n">
         <v>187.6499938964844</v>
@@ -21731,7 +21731,7 @@
         <v>45169</v>
       </c>
       <c r="B926" t="n">
-        <v>186.7081298828125</v>
+        <v>186.7081451416016</v>
       </c>
       <c r="C926" t="n">
         <v>187.8699951171875</v>
@@ -21754,7 +21754,7 @@
         <v>45170</v>
       </c>
       <c r="B927" t="n">
-        <v>188.2883148193359</v>
+        <v>188.2882995605469</v>
       </c>
       <c r="C927" t="n">
         <v>189.4600067138672</v>
@@ -21800,7 +21800,7 @@
         <v>45175</v>
       </c>
       <c r="B929" t="n">
-        <v>181.7787933349609</v>
+        <v>181.77880859375</v>
       </c>
       <c r="C929" t="n">
         <v>182.9100036621094</v>
@@ -21823,7 +21823,7 @@
         <v>45176</v>
       </c>
       <c r="B930" t="n">
-        <v>176.4618988037109</v>
+        <v>176.4618835449219</v>
       </c>
       <c r="C930" t="n">
         <v>177.5599975585938</v>
@@ -21846,7 +21846,7 @@
         <v>45177</v>
       </c>
       <c r="B931" t="n">
-        <v>177.0780334472656</v>
+        <v>177.0780487060547</v>
       </c>
       <c r="C931" t="n">
         <v>178.1799926757812</v>
@@ -21892,7 +21892,7 @@
         <v>45181</v>
       </c>
       <c r="B933" t="n">
-        <v>175.2096862792969</v>
+        <v>175.2097015380859</v>
       </c>
       <c r="C933" t="n">
         <v>176.3000030517578</v>
@@ -21915,7 +21915,7 @@
         <v>45182</v>
       </c>
       <c r="B934" t="n">
-        <v>173.1326293945312</v>
+        <v>173.1325988769531</v>
       </c>
       <c r="C934" t="n">
         <v>174.2100067138672</v>
@@ -21938,7 +21938,7 @@
         <v>45183</v>
       </c>
       <c r="B935" t="n">
-        <v>174.6531524658203</v>
+        <v>174.6531372070312</v>
       </c>
       <c r="C935" t="n">
         <v>175.7400054931641</v>
@@ -21961,7 +21961,7 @@
         <v>45184</v>
       </c>
       <c r="B936" t="n">
-        <v>173.9276428222656</v>
+        <v>173.9276733398438</v>
       </c>
       <c r="C936" t="n">
         <v>175.0099945068359</v>
@@ -22007,7 +22007,7 @@
         <v>45188</v>
       </c>
       <c r="B938" t="n">
-        <v>177.9625396728516</v>
+        <v>177.9625701904297</v>
       </c>
       <c r="C938" t="n">
         <v>179.0700073242188</v>
@@ -22030,7 +22030,7 @@
         <v>45189</v>
       </c>
       <c r="B939" t="n">
-        <v>174.4046936035156</v>
+        <v>174.4046783447266</v>
       </c>
       <c r="C939" t="n">
         <v>175.4900054931641</v>
@@ -22053,7 +22053,7 @@
         <v>45190</v>
       </c>
       <c r="B940" t="n">
-        <v>172.8543395996094</v>
+        <v>172.8543090820312</v>
       </c>
       <c r="C940" t="n">
         <v>173.9299926757812</v>
@@ -22076,7 +22076,7 @@
         <v>45191</v>
       </c>
       <c r="B941" t="n">
-        <v>173.7089996337891</v>
+        <v>173.7090301513672</v>
       </c>
       <c r="C941" t="n">
         <v>174.7899932861328</v>
@@ -22099,7 +22099,7 @@
         <v>45194</v>
       </c>
       <c r="B942" t="n">
-        <v>174.9910430908203</v>
+        <v>174.9910583496094</v>
       </c>
       <c r="C942" t="n">
         <v>176.0800018310547</v>
@@ -22191,7 +22191,7 @@
         <v>45198</v>
       </c>
       <c r="B946" t="n">
-        <v>170.1511688232422</v>
+        <v>170.1511535644531</v>
       </c>
       <c r="C946" t="n">
         <v>171.2100067138672</v>
@@ -22260,7 +22260,7 @@
         <v>45203</v>
       </c>
       <c r="B949" t="n">
-        <v>172.5859985351562</v>
+        <v>172.5860290527344</v>
       </c>
       <c r="C949" t="n">
         <v>173.6600036621094</v>
@@ -22283,7 +22283,7 @@
         <v>45204</v>
       </c>
       <c r="B950" t="n">
-        <v>173.8282928466797</v>
+        <v>173.8282775878906</v>
       </c>
       <c r="C950" t="n">
         <v>174.9100036621094</v>
@@ -22329,7 +22329,7 @@
         <v>45208</v>
       </c>
       <c r="B952" t="n">
-        <v>177.8830413818359</v>
+        <v>177.883056640625</v>
       </c>
       <c r="C952" t="n">
         <v>178.9900054931641</v>
@@ -22375,7 +22375,7 @@
         <v>45210</v>
       </c>
       <c r="B954" t="n">
-        <v>178.6880493164062</v>
+        <v>178.6880340576172</v>
       </c>
       <c r="C954" t="n">
         <v>179.8000030517578</v>
@@ -22421,7 +22421,7 @@
         <v>45212</v>
       </c>
       <c r="B956" t="n">
-        <v>177.7439117431641</v>
+        <v>177.7439270019531</v>
       </c>
       <c r="C956" t="n">
         <v>178.8500061035156</v>
@@ -22467,7 +22467,7 @@
         <v>45216</v>
       </c>
       <c r="B958" t="n">
-        <v>176.0544128417969</v>
+        <v>176.0544281005859</v>
       </c>
       <c r="C958" t="n">
         <v>177.1499938964844</v>
@@ -22513,7 +22513,7 @@
         <v>45218</v>
       </c>
       <c r="B960" t="n">
-        <v>174.3748931884766</v>
+        <v>174.3748779296875</v>
       </c>
       <c r="C960" t="n">
         <v>175.4600067138672</v>
@@ -22536,7 +22536,7 @@
         <v>45219</v>
       </c>
       <c r="B961" t="n">
-        <v>171.8108215332031</v>
+        <v>171.8108520507812</v>
       </c>
       <c r="C961" t="n">
         <v>172.8800048828125</v>
@@ -22651,7 +22651,7 @@
         <v>45226</v>
       </c>
       <c r="B966" t="n">
-        <v>167.1796569824219</v>
+        <v>167.1796417236328</v>
       </c>
       <c r="C966" t="n">
         <v>168.2200012207031</v>
@@ -22697,7 +22697,7 @@
         <v>45230</v>
       </c>
       <c r="B968" t="n">
-        <v>169.7138824462891</v>
+        <v>169.7138977050781</v>
       </c>
       <c r="C968" t="n">
         <v>170.7700042724609</v>
@@ -22720,7 +22720,7 @@
         <v>45231</v>
       </c>
       <c r="B969" t="n">
-        <v>172.8941040039062</v>
+        <v>172.8940887451172</v>
       </c>
       <c r="C969" t="n">
         <v>173.9700012207031</v>
@@ -22743,7 +22743,7 @@
         <v>45232</v>
       </c>
       <c r="B970" t="n">
-        <v>176.4718322753906</v>
+        <v>176.4718475341797</v>
       </c>
       <c r="C970" t="n">
         <v>177.5700073242188</v>
@@ -22812,7 +22812,7 @@
         <v>45237</v>
       </c>
       <c r="B973" t="n">
-        <v>180.695556640625</v>
+        <v>180.6955718994141</v>
       </c>
       <c r="C973" t="n">
         <v>181.8200073242188</v>
@@ -22835,7 +22835,7 @@
         <v>45238</v>
       </c>
       <c r="B974" t="n">
-        <v>181.7589263916016</v>
+        <v>181.7589416503906</v>
       </c>
       <c r="C974" t="n">
         <v>182.8899993896484</v>
@@ -22858,7 +22858,7 @@
         <v>45239</v>
       </c>
       <c r="B975" t="n">
-        <v>181.2818908691406</v>
+        <v>181.2819061279297</v>
       </c>
       <c r="C975" t="n">
         <v>182.4100036621094</v>
@@ -22927,7 +22927,7 @@
         <v>45244</v>
       </c>
       <c r="B978" t="n">
-        <v>186.5261993408203</v>
+        <v>186.5262145996094</v>
       </c>
       <c r="C978" t="n">
         <v>187.4400024414062</v>
@@ -23088,7 +23088,7 @@
         <v>45254</v>
       </c>
       <c r="B985" t="n">
-        <v>189.0438690185547</v>
+        <v>189.0438842773438</v>
       </c>
       <c r="C985" t="n">
         <v>189.9700012207031</v>
@@ -23157,7 +23157,7 @@
         <v>45259</v>
       </c>
       <c r="B988" t="n">
-        <v>188.4467926025391</v>
+        <v>188.4468078613281</v>
       </c>
       <c r="C988" t="n">
         <v>189.3699951171875</v>
@@ -23203,7 +23203,7 @@
         <v>45261</v>
       </c>
       <c r="B990" t="n">
-        <v>190.3076782226562</v>
+        <v>190.3076934814453</v>
       </c>
       <c r="C990" t="n">
         <v>191.2400054931641</v>
@@ -23272,7 +23272,7 @@
         <v>45266</v>
       </c>
       <c r="B993" t="n">
-        <v>191.3824310302734</v>
+        <v>191.3824157714844</v>
       </c>
       <c r="C993" t="n">
         <v>192.3200073242188</v>
@@ -23341,7 +23341,7 @@
         <v>45271</v>
       </c>
       <c r="B996" t="n">
-        <v>192.2382049560547</v>
+        <v>192.2382202148438</v>
       </c>
       <c r="C996" t="n">
         <v>193.1799926757812</v>
@@ -23364,7 +23364,7 @@
         <v>45272</v>
       </c>
       <c r="B997" t="n">
-        <v>193.7607727050781</v>
+        <v>193.7607879638672</v>
       </c>
       <c r="C997" t="n">
         <v>194.7100067138672</v>
@@ -23387,7 +23387,7 @@
         <v>45273</v>
       </c>
       <c r="B998" t="n">
-        <v>196.9949188232422</v>
+        <v>196.9949340820312</v>
       </c>
       <c r="C998" t="n">
         <v>197.9600067138672</v>
@@ -23410,7 +23410,7 @@
         <v>45274</v>
       </c>
       <c r="B999" t="n">
-        <v>197.1441650390625</v>
+        <v>197.1441802978516</v>
       </c>
       <c r="C999" t="n">
         <v>198.1100006103516</v>
@@ -23433,7 +23433,7 @@
         <v>45275</v>
       </c>
       <c r="B1000" t="n">
-        <v>196.6068115234375</v>
+        <v>196.6068267822266</v>
       </c>
       <c r="C1000" t="n">
         <v>197.5700073242188</v>
@@ -23525,7 +23525,7 @@
         <v>45281</v>
       </c>
       <c r="B1004" t="n">
-        <v>193.7308807373047</v>
+        <v>193.7308959960938</v>
       </c>
       <c r="C1004" t="n">
         <v>194.6799926757812</v>
@@ -23594,7 +23594,7 @@
         <v>45287</v>
       </c>
       <c r="B1007" t="n">
-        <v>192.2083587646484</v>
+        <v>192.2083740234375</v>
       </c>
       <c r="C1007" t="n">
         <v>193.1499938964844</v>
@@ -23617,7 +23617,7 @@
         <v>45288</v>
       </c>
       <c r="B1008" t="n">
-        <v>192.6362762451172</v>
+        <v>192.6362915039062</v>
       </c>
       <c r="C1008" t="n">
         <v>193.5800018310547</v>
@@ -23640,7 +23640,7 @@
         <v>45289</v>
       </c>
       <c r="B1009" t="n">
-        <v>191.5913848876953</v>
+        <v>191.5913696289062</v>
       </c>
       <c r="C1009" t="n">
         <v>192.5299987792969</v>
@@ -23709,7 +23709,7 @@
         <v>45295</v>
       </c>
       <c r="B1012" t="n">
-        <v>181.0231781005859</v>
+        <v>181.0231628417969</v>
       </c>
       <c r="C1012" t="n">
         <v>181.9100036621094</v>
@@ -23801,7 +23801,7 @@
         <v>45301</v>
       </c>
       <c r="B1016" t="n">
-        <v>185.2823028564453</v>
+        <v>185.2822875976562</v>
       </c>
       <c r="C1016" t="n">
         <v>186.1900024414062</v>
@@ -23870,7 +23870,7 @@
         <v>45307</v>
       </c>
       <c r="B1019" t="n">
-        <v>182.7347717285156</v>
+        <v>182.7347869873047</v>
       </c>
       <c r="C1019" t="n">
         <v>183.6300048828125</v>
@@ -23893,7 +23893,7 @@
         <v>45308</v>
       </c>
       <c r="B1020" t="n">
-        <v>181.7893829345703</v>
+        <v>181.7893981933594</v>
       </c>
       <c r="C1020" t="n">
         <v>182.6799926757812</v>
@@ -23916,7 +23916,7 @@
         <v>45309</v>
       </c>
       <c r="B1021" t="n">
-        <v>187.7104187011719</v>
+        <v>187.7104034423828</v>
       </c>
       <c r="C1021" t="n">
         <v>188.6300048828125</v>
@@ -23962,7 +23962,7 @@
         <v>45313</v>
       </c>
       <c r="B1023" t="n">
-        <v>192.9447479248047</v>
+        <v>192.9447631835938</v>
       </c>
       <c r="C1023" t="n">
         <v>193.8899993896484</v>
@@ -23985,7 +23985,7 @@
         <v>45314</v>
       </c>
       <c r="B1024" t="n">
-        <v>194.2284698486328</v>
+        <v>194.2284545898438</v>
       </c>
       <c r="C1024" t="n">
         <v>195.1799926757812</v>
@@ -24008,7 +24008,7 @@
         <v>45315</v>
       </c>
       <c r="B1025" t="n">
-        <v>193.5517730712891</v>
+        <v>193.5517883300781</v>
       </c>
       <c r="C1025" t="n">
         <v>194.5</v>
@@ -24031,7 +24031,7 @@
         <v>45316</v>
       </c>
       <c r="B1026" t="n">
-        <v>193.2234039306641</v>
+        <v>193.223388671875</v>
       </c>
       <c r="C1026" t="n">
         <v>194.1699981689453</v>
@@ -24054,7 +24054,7 @@
         <v>45317</v>
       </c>
       <c r="B1027" t="n">
-        <v>191.4819183349609</v>
+        <v>191.4819030761719</v>
       </c>
       <c r="C1027" t="n">
         <v>192.4199981689453</v>
@@ -24146,7 +24146,7 @@
         <v>45323</v>
       </c>
       <c r="B1031" t="n">
-        <v>185.9490509033203</v>
+        <v>185.9490356445312</v>
       </c>
       <c r="C1031" t="n">
         <v>186.8600006103516</v>
@@ -24192,7 +24192,7 @@
         <v>45327</v>
       </c>
       <c r="B1033" t="n">
-        <v>186.7650299072266</v>
+        <v>186.7650146484375</v>
       </c>
       <c r="C1033" t="n">
         <v>187.6799926757812</v>
@@ -24238,7 +24238,7 @@
         <v>45329</v>
       </c>
       <c r="B1035" t="n">
-        <v>188.4866027832031</v>
+        <v>188.4865875244141</v>
       </c>
       <c r="C1035" t="n">
         <v>189.4100036621094</v>
@@ -24307,7 +24307,7 @@
         <v>45334</v>
       </c>
       <c r="B1038" t="n">
-        <v>186.4752655029297</v>
+        <v>186.4752502441406</v>
       </c>
       <c r="C1038" t="n">
         <v>187.1499938964844</v>
@@ -24399,7 +24399,7 @@
         <v>45338</v>
       </c>
       <c r="B1042" t="n">
-        <v>181.6526947021484</v>
+        <v>181.6527099609375</v>
       </c>
       <c r="C1042" t="n">
         <v>182.3099975585938</v>
@@ -24491,7 +24491,7 @@
         <v>45345</v>
       </c>
       <c r="B1046" t="n">
-        <v>181.8619689941406</v>
+        <v>181.8619537353516</v>
       </c>
       <c r="C1046" t="n">
         <v>182.5200042724609</v>
@@ -24537,7 +24537,7 @@
         <v>45349</v>
       </c>
       <c r="B1048" t="n">
-        <v>181.9715576171875</v>
+        <v>181.9715728759766</v>
       </c>
       <c r="C1048" t="n">
         <v>182.6300048828125</v>
@@ -24560,7 +24560,7 @@
         <v>45350</v>
       </c>
       <c r="B1049" t="n">
-        <v>180.7659149169922</v>
+        <v>180.7659301757812</v>
       </c>
       <c r="C1049" t="n">
         <v>181.4199981689453</v>
@@ -24583,7 +24583,7 @@
         <v>45351</v>
       </c>
       <c r="B1050" t="n">
-        <v>180.0983276367188</v>
+        <v>180.0983428955078</v>
       </c>
       <c r="C1050" t="n">
         <v>180.75</v>
@@ -24652,7 +24652,7 @@
         <v>45356</v>
       </c>
       <c r="B1053" t="n">
-        <v>169.5066528320312</v>
+        <v>169.5066680908203</v>
       </c>
       <c r="C1053" t="n">
         <v>170.1199951171875</v>
@@ -24675,7 +24675,7 @@
         <v>45357</v>
       </c>
       <c r="B1054" t="n">
-        <v>168.5102691650391</v>
+        <v>168.51025390625</v>
       </c>
       <c r="C1054" t="n">
         <v>169.1199951171875</v>
@@ -24721,7 +24721,7 @@
         <v>45359</v>
       </c>
       <c r="B1056" t="n">
-        <v>170.1144561767578</v>
+        <v>170.1144714355469</v>
       </c>
       <c r="C1056" t="n">
         <v>170.7299957275391</v>
@@ -24813,7 +24813,7 @@
         <v>45365</v>
       </c>
       <c r="B1060" t="n">
-        <v>172.3762817382812</v>
+        <v>172.3762664794922</v>
       </c>
       <c r="C1060" t="n">
         <v>173</v>
@@ -24859,7 +24859,7 @@
         <v>45369</v>
       </c>
       <c r="B1062" t="n">
-        <v>173.0936737060547</v>
+        <v>173.0936889648438</v>
       </c>
       <c r="C1062" t="n">
         <v>173.7200012207031</v>
@@ -24905,7 +24905,7 @@
         <v>45371</v>
       </c>
       <c r="B1064" t="n">
-        <v>178.0258331298828</v>
+        <v>178.0258178710938</v>
       </c>
       <c r="C1064" t="n">
         <v>178.6699981689453</v>
@@ -24928,7 +24928,7 @@
         <v>45372</v>
       </c>
       <c r="B1065" t="n">
-        <v>170.7521362304688</v>
+        <v>170.7521514892578</v>
       </c>
       <c r="C1065" t="n">
         <v>171.3699951171875</v>
@@ -25043,7 +25043,7 @@
         <v>45379</v>
       </c>
       <c r="B1070" t="n">
-        <v>170.8617401123047</v>
+        <v>170.8617553710938</v>
       </c>
       <c r="C1070" t="n">
         <v>171.4799957275391</v>
@@ -25089,7 +25089,7 @@
         <v>45384</v>
       </c>
       <c r="B1072" t="n">
-        <v>168.2312622070312</v>
+        <v>168.2312774658203</v>
       </c>
       <c r="C1072" t="n">
         <v>168.8399963378906</v>
@@ -25112,7 +25112,7 @@
         <v>45385</v>
       </c>
       <c r="B1073" t="n">
-        <v>169.0383605957031</v>
+        <v>169.0383453369141</v>
       </c>
       <c r="C1073" t="n">
         <v>169.6499938964844</v>
@@ -25158,7 +25158,7 @@
         <v>45387</v>
       </c>
       <c r="B1075" t="n">
-        <v>168.9686126708984</v>
+        <v>168.9685974121094</v>
       </c>
       <c r="C1075" t="n">
         <v>169.5800018310547</v>
@@ -25227,7 +25227,7 @@
         <v>45392</v>
       </c>
       <c r="B1078" t="n">
-        <v>167.1750793457031</v>
+        <v>167.1750946044922</v>
       </c>
       <c r="C1078" t="n">
         <v>167.7799987792969</v>
@@ -25296,7 +25296,7 @@
         <v>45397</v>
       </c>
       <c r="B1081" t="n">
-        <v>172.0673828125</v>
+        <v>172.0673980712891</v>
       </c>
       <c r="C1081" t="n">
         <v>172.6900024414062</v>
@@ -25434,7 +25434,7 @@
         <v>45405</v>
       </c>
       <c r="B1087" t="n">
-        <v>166.2982482910156</v>
+        <v>166.2982635498047</v>
       </c>
       <c r="C1087" t="n">
         <v>166.8999938964844</v>
@@ -25618,7 +25618,7 @@
         <v>45415</v>
       </c>
       <c r="B1095" t="n">
-        <v>182.7188415527344</v>
+        <v>182.7188568115234</v>
       </c>
       <c r="C1095" t="n">
         <v>183.3800048828125</v>
@@ -25641,7 +25641,7 @@
         <v>45418</v>
       </c>
       <c r="B1096" t="n">
-        <v>181.0548706054688</v>
+        <v>181.0548858642578</v>
       </c>
       <c r="C1096" t="n">
         <v>181.7100067138672</v>
@@ -25687,7 +25687,7 @@
         <v>45420</v>
       </c>
       <c r="B1098" t="n">
-        <v>182.0811614990234</v>
+        <v>182.0811767578125</v>
       </c>
       <c r="C1098" t="n">
         <v>182.7400054931641</v>
